--- a/2-Empirical-Evidence/raw_data/Michigan.xlsx
+++ b/2-Empirical-Evidence/raw_data/Michigan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="371">
   <si>
     <t>Local Area Unemployment Statistics</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Years:</t>
   </si>
   <si>
-    <t>1990 to 2020</t>
+    <t>1990 to 2024</t>
   </si>
   <si>
     <t>Series ID</t>
@@ -148,6 +148,22 @@
   <si>
     <t>Annual
 2020</t>
+  </si>
+  <si>
+    <t>Annual
+2021</t>
+  </si>
+  <si>
+    <t>Annual
+2022</t>
+  </si>
+  <si>
+    <t>Annual
+2023</t>
+  </si>
+  <si>
+    <t>Annual
+2024</t>
   </si>
   <si>
     <t>LAUCN260010000000003</t>
@@ -1534,10 +1550,22 @@
       <c r="AF4" t="s" s="3">
         <v>34</v>
       </c>
+      <c r="AG4" t="s" s="3">
+        <v>35</v>
+      </c>
+      <c r="AH4" t="s" s="3">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="AJ4" t="s" s="3">
+        <v>38</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="n" s="10">
         <v>13.1</v>
@@ -1632,10 +1660,20 @@
       <c r="AF5" t="n" s="10">
         <v>10.4</v>
       </c>
+      <c r="AG5" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH5" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="AI5" t="n" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="AJ5"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="7">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B6" t="n" s="8">
         <v>515.0</v>
@@ -1730,10 +1768,20 @@
       <c r="AF6" t="n" s="8">
         <v>401.0</v>
       </c>
+      <c r="AG6" t="n" s="8">
+        <v>257.0</v>
+      </c>
+      <c r="AH6" t="n" s="8">
+        <v>261.0</v>
+      </c>
+      <c r="AI6" t="n" s="8">
+        <v>265.0</v>
+      </c>
+      <c r="AJ6"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="7">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B7" t="n" s="8">
         <v>3417.0</v>
@@ -1828,10 +1876,20 @@
       <c r="AF7" t="n" s="8">
         <v>3459.0</v>
       </c>
+      <c r="AG7" t="n" s="8">
+        <v>3475.0</v>
+      </c>
+      <c r="AH7" t="n" s="8">
+        <v>3606.0</v>
+      </c>
+      <c r="AI7" t="n" s="8">
+        <v>3375.0</v>
+      </c>
+      <c r="AJ7"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="7">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="n" s="8">
         <v>3932.0</v>
@@ -1926,10 +1984,20 @@
       <c r="AF8" t="n" s="8">
         <v>3860.0</v>
       </c>
+      <c r="AG8" t="n" s="8">
+        <v>3732.0</v>
+      </c>
+      <c r="AH8" t="n" s="8">
+        <v>3867.0</v>
+      </c>
+      <c r="AI8" t="n" s="8">
+        <v>3640.0</v>
+      </c>
+      <c r="AJ8"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="7">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="10">
         <v>9.2</v>
@@ -2024,10 +2092,20 @@
       <c r="AF9" t="n" s="10">
         <v>11.2</v>
       </c>
+      <c r="AG9" t="n" s="10">
+        <v>7.7</v>
+      </c>
+      <c r="AH9" t="n" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="AI9" t="n" s="10">
+        <v>7.7</v>
+      </c>
+      <c r="AJ9"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="7">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B10" t="n" s="8">
         <v>352.0</v>
@@ -2122,10 +2200,20 @@
       <c r="AF10" t="n" s="8">
         <v>351.0</v>
       </c>
+      <c r="AG10" t="n" s="8">
+        <v>240.0</v>
+      </c>
+      <c r="AH10" t="n" s="8">
+        <v>234.0</v>
+      </c>
+      <c r="AI10" t="n" s="8">
+        <v>255.0</v>
+      </c>
+      <c r="AJ10"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="7">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B11" t="n" s="8">
         <v>3460.0</v>
@@ -2220,10 +2308,20 @@
       <c r="AF11" t="n" s="8">
         <v>2784.0</v>
       </c>
+      <c r="AG11" t="n" s="8">
+        <v>2861.0</v>
+      </c>
+      <c r="AH11" t="n" s="8">
+        <v>2994.0</v>
+      </c>
+      <c r="AI11" t="n" s="8">
+        <v>3069.0</v>
+      </c>
+      <c r="AJ11"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B12" t="n" s="8">
         <v>3812.0</v>
@@ -2318,10 +2416,20 @@
       <c r="AF12" t="n" s="8">
         <v>3135.0</v>
       </c>
+      <c r="AG12" t="n" s="8">
+        <v>3101.0</v>
+      </c>
+      <c r="AH12" t="n" s="8">
+        <v>3228.0</v>
+      </c>
+      <c r="AI12" t="n" s="8">
+        <v>3324.0</v>
+      </c>
+      <c r="AJ12"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="7">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B13" t="n" s="10">
         <v>6.1</v>
@@ -2416,10 +2524,20 @@
       <c r="AF13" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG13" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH13" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AI13" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ13"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="7">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="n" s="8">
         <v>2807.0</v>
@@ -2514,10 +2632,20 @@
       <c r="AF14" t="n" s="8">
         <v>4719.0</v>
       </c>
+      <c r="AG14" t="n" s="8">
+        <v>2774.0</v>
+      </c>
+      <c r="AH14" t="n" s="8">
+        <v>2244.0</v>
+      </c>
+      <c r="AI14" t="n" s="8">
+        <v>2208.0</v>
+      </c>
+      <c r="AJ14"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="7">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n" s="8">
         <v>43151.0</v>
@@ -2612,10 +2740,20 @@
       <c r="AF15" t="n" s="8">
         <v>57581.0</v>
       </c>
+      <c r="AG15" t="n" s="8">
+        <v>57793.0</v>
+      </c>
+      <c r="AH15" t="n" s="8">
+        <v>59858.0</v>
+      </c>
+      <c r="AI15" t="n" s="8">
+        <v>62513.0</v>
+      </c>
+      <c r="AJ15"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="7">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B16" t="n" s="8">
         <v>45958.0</v>
@@ -2710,10 +2848,20 @@
       <c r="AF16" t="n" s="8">
         <v>62300.0</v>
       </c>
+      <c r="AG16" t="n" s="8">
+        <v>60567.0</v>
+      </c>
+      <c r="AH16" t="n" s="8">
+        <v>62102.0</v>
+      </c>
+      <c r="AI16" t="n" s="8">
+        <v>64721.0</v>
+      </c>
+      <c r="AJ16"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n" s="10">
         <v>10.2</v>
@@ -2808,10 +2956,20 @@
       <c r="AF17" t="n" s="10">
         <v>8.0</v>
       </c>
+      <c r="AG17" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH17" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI17" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ17"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B18" t="n" s="8">
         <v>1467.0</v>
@@ -2906,10 +3064,20 @@
       <c r="AF18" t="n" s="8">
         <v>1067.0</v>
       </c>
+      <c r="AG18" t="n" s="8">
+        <v>711.0</v>
+      </c>
+      <c r="AH18" t="n" s="8">
+        <v>646.0</v>
+      </c>
+      <c r="AI18" t="n" s="8">
+        <v>641.0</v>
+      </c>
+      <c r="AJ18"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="7">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B19" t="n" s="8">
         <v>12856.0</v>
@@ -3004,10 +3172,20 @@
       <c r="AF19" t="n" s="8">
         <v>12209.0</v>
       </c>
+      <c r="AG19" t="n" s="8">
+        <v>12438.0</v>
+      </c>
+      <c r="AH19" t="n" s="8">
+        <v>12694.0</v>
+      </c>
+      <c r="AI19" t="n" s="8">
+        <v>13465.0</v>
+      </c>
+      <c r="AJ19"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="7">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B20" t="n" s="8">
         <v>14323.0</v>
@@ -3102,10 +3280,20 @@
       <c r="AF20" t="n" s="8">
         <v>13276.0</v>
       </c>
+      <c r="AG20" t="n" s="8">
+        <v>13149.0</v>
+      </c>
+      <c r="AH20" t="n" s="8">
+        <v>13340.0</v>
+      </c>
+      <c r="AI20" t="n" s="8">
+        <v>14106.0</v>
+      </c>
+      <c r="AJ20"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="7">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B21" t="n" s="10">
         <v>10.1</v>
@@ -3200,10 +3388,20 @@
       <c r="AF21" t="n" s="10">
         <v>10.1</v>
       </c>
+      <c r="AG21" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AH21" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AI21" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AJ21"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="7">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B22" t="n" s="8">
         <v>898.0</v>
@@ -3298,10 +3496,20 @@
       <c r="AF22" t="n" s="8">
         <v>1029.0</v>
       </c>
+      <c r="AG22" t="n" s="8">
+        <v>672.0</v>
+      </c>
+      <c r="AH22" t="n" s="8">
+        <v>577.0</v>
+      </c>
+      <c r="AI22" t="n" s="8">
+        <v>558.0</v>
+      </c>
+      <c r="AJ22"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="7">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B23" t="n" s="8">
         <v>7987.0</v>
@@ -3396,10 +3604,20 @@
       <c r="AF23" t="n" s="8">
         <v>9131.0</v>
       </c>
+      <c r="AG23" t="n" s="8">
+        <v>9206.0</v>
+      </c>
+      <c r="AH23" t="n" s="8">
+        <v>9514.0</v>
+      </c>
+      <c r="AI23" t="n" s="8">
+        <v>9860.0</v>
+      </c>
+      <c r="AJ23"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="7">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B24" t="n" s="8">
         <v>8885.0</v>
@@ -3494,10 +3712,20 @@
       <c r="AF24" t="n" s="8">
         <v>10160.0</v>
       </c>
+      <c r="AG24" t="n" s="8">
+        <v>9878.0</v>
+      </c>
+      <c r="AH24" t="n" s="8">
+        <v>10091.0</v>
+      </c>
+      <c r="AI24" t="n" s="8">
+        <v>10418.0</v>
+      </c>
+      <c r="AJ24"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B25" t="n" s="10">
         <v>9.0</v>
@@ -3592,10 +3820,20 @@
       <c r="AF25" t="n" s="10">
         <v>11.7</v>
       </c>
+      <c r="AG25" t="n" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="AH25" t="n" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="AI25" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AJ25"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="7">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n" s="8">
         <v>555.0</v>
@@ -3690,10 +3928,20 @@
       <c r="AF26" t="n" s="8">
         <v>698.0</v>
       </c>
+      <c r="AG26" t="n" s="8">
+        <v>461.0</v>
+      </c>
+      <c r="AH26" t="n" s="8">
+        <v>419.0</v>
+      </c>
+      <c r="AI26" t="n" s="8">
+        <v>417.0</v>
+      </c>
+      <c r="AJ26"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="7">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B27" t="n" s="8">
         <v>5618.0</v>
@@ -3788,10 +4036,20 @@
       <c r="AF27" t="n" s="8">
         <v>5271.0</v>
       </c>
+      <c r="AG27" t="n" s="8">
+        <v>5232.0</v>
+      </c>
+      <c r="AH27" t="n" s="8">
+        <v>5365.0</v>
+      </c>
+      <c r="AI27" t="n" s="8">
+        <v>5606.0</v>
+      </c>
+      <c r="AJ27"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="7">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B28" t="n" s="8">
         <v>6173.0</v>
@@ -3886,10 +4144,20 @@
       <c r="AF28" t="n" s="8">
         <v>5969.0</v>
       </c>
+      <c r="AG28" t="n" s="8">
+        <v>5693.0</v>
+      </c>
+      <c r="AH28" t="n" s="8">
+        <v>5784.0</v>
+      </c>
+      <c r="AI28" t="n" s="8">
+        <v>6023.0</v>
+      </c>
+      <c r="AJ28"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="7">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B29" t="n" s="10">
         <v>10.5</v>
@@ -3984,10 +4252,20 @@
       <c r="AF29" t="n" s="10">
         <v>12.3</v>
       </c>
+      <c r="AG29" t="n" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="AH29" t="n" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="AI29" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AJ29"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="7">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B30" t="n" s="8">
         <v>353.0</v>
@@ -4082,10 +4360,20 @@
       <c r="AF30" t="n" s="8">
         <v>388.0</v>
       </c>
+      <c r="AG30" t="n" s="8">
+        <v>228.0</v>
+      </c>
+      <c r="AH30" t="n" s="8">
+        <v>220.0</v>
+      </c>
+      <c r="AI30" t="n" s="8">
+        <v>200.0</v>
+      </c>
+      <c r="AJ30"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="7">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B31" t="n" s="8">
         <v>2996.0</v>
@@ -4180,10 +4468,20 @@
       <c r="AF31" t="n" s="8">
         <v>2774.0</v>
       </c>
+      <c r="AG31" t="n" s="8">
+        <v>2785.0</v>
+      </c>
+      <c r="AH31" t="n" s="8">
+        <v>2855.0</v>
+      </c>
+      <c r="AI31" t="n" s="8">
+        <v>3017.0</v>
+      </c>
+      <c r="AJ31"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B32" t="n" s="8">
         <v>3349.0</v>
@@ -4278,10 +4576,20 @@
       <c r="AF32" t="n" s="8">
         <v>3162.0</v>
       </c>
+      <c r="AG32" t="n" s="8">
+        <v>3013.0</v>
+      </c>
+      <c r="AH32" t="n" s="8">
+        <v>3075.0</v>
+      </c>
+      <c r="AI32" t="n" s="8">
+        <v>3217.0</v>
+      </c>
+      <c r="AJ32"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="7">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B33" t="n" s="10">
         <v>6.2</v>
@@ -4376,10 +4684,20 @@
       <c r="AF33" t="n" s="10">
         <v>7.7</v>
       </c>
+      <c r="AG33" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AH33" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI33" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ33"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="7">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n" s="8">
         <v>1571.0</v>
@@ -4474,10 +4792,20 @@
       <c r="AF34" t="n" s="8">
         <v>2414.0</v>
       </c>
+      <c r="AG34" t="n" s="8">
+        <v>1387.0</v>
+      </c>
+      <c r="AH34" t="n" s="8">
+        <v>1200.0</v>
+      </c>
+      <c r="AI34" t="n" s="8">
+        <v>1175.0</v>
+      </c>
+      <c r="AJ34"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="7">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B35" t="n" s="8">
         <v>23622.0</v>
@@ -4572,10 +4900,20 @@
       <c r="AF35" t="n" s="8">
         <v>29140.0</v>
       </c>
+      <c r="AG35" t="n" s="8">
+        <v>29496.0</v>
+      </c>
+      <c r="AH35" t="n" s="8">
+        <v>30825.0</v>
+      </c>
+      <c r="AI35" t="n" s="8">
+        <v>32002.0</v>
+      </c>
+      <c r="AJ35"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="7">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B36" t="n" s="8">
         <v>25193.0</v>
@@ -4670,10 +5008,20 @@
       <c r="AF36" t="n" s="8">
         <v>31554.0</v>
       </c>
+      <c r="AG36" t="n" s="8">
+        <v>30883.0</v>
+      </c>
+      <c r="AH36" t="n" s="8">
+        <v>32025.0</v>
+      </c>
+      <c r="AI36" t="n" s="8">
+        <v>33177.0</v>
+      </c>
+      <c r="AJ36"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="7">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B37" t="n" s="10">
         <v>8.0</v>
@@ -4768,10 +5116,20 @@
       <c r="AF37" t="n" s="10">
         <v>9.5</v>
       </c>
+      <c r="AG37" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH37" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI37" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AJ37"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="7">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n" s="8">
         <v>4288.0</v>
@@ -4866,10 +5224,20 @@
       <c r="AF38" t="n" s="8">
         <v>4734.0</v>
       </c>
+      <c r="AG38" t="n" s="8">
+        <v>2848.0</v>
+      </c>
+      <c r="AH38" t="n" s="8">
+        <v>2486.0</v>
+      </c>
+      <c r="AI38" t="n" s="8">
+        <v>2457.0</v>
+      </c>
+      <c r="AJ38"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="7">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="n" s="8">
         <v>49504.0</v>
@@ -4964,10 +5332,20 @@
       <c r="AF39" t="n" s="8">
         <v>44867.0</v>
       </c>
+      <c r="AG39" t="n" s="8">
+        <v>45182.0</v>
+      </c>
+      <c r="AH39" t="n" s="8">
+        <v>46493.0</v>
+      </c>
+      <c r="AI39" t="n" s="8">
+        <v>47400.0</v>
+      </c>
+      <c r="AJ39"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="7">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" t="n" s="8">
         <v>53792.0</v>
@@ -5062,10 +5440,20 @@
       <c r="AF40" t="n" s="8">
         <v>49601.0</v>
       </c>
+      <c r="AG40" t="n" s="8">
+        <v>48030.0</v>
+      </c>
+      <c r="AH40" t="n" s="8">
+        <v>48979.0</v>
+      </c>
+      <c r="AI40" t="n" s="8">
+        <v>49857.0</v>
+      </c>
+      <c r="AJ40"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B41" t="n" s="10">
         <v>11.7</v>
@@ -5160,10 +5548,20 @@
       <c r="AF41" t="n" s="10">
         <v>9.7</v>
       </c>
+      <c r="AG41" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH41" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AI41" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AJ41"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="7">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B42" t="n" s="8">
         <v>711.0</v>
@@ -5258,10 +5656,20 @@
       <c r="AF42" t="n" s="8">
         <v>845.0</v>
       </c>
+      <c r="AG42" t="n" s="8">
+        <v>492.0</v>
+      </c>
+      <c r="AH42" t="n" s="8">
+        <v>456.0</v>
+      </c>
+      <c r="AI42" t="n" s="8">
+        <v>451.0</v>
+      </c>
+      <c r="AJ42"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B43" t="n" s="8">
         <v>5358.0</v>
@@ -5356,10 +5764,20 @@
       <c r="AF43" t="n" s="8">
         <v>7855.0</v>
       </c>
+      <c r="AG43" t="n" s="8">
+        <v>7983.0</v>
+      </c>
+      <c r="AH43" t="n" s="8">
+        <v>8342.0</v>
+      </c>
+      <c r="AI43" t="n" s="8">
+        <v>8659.0</v>
+      </c>
+      <c r="AJ43"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="n" s="8">
         <v>6069.0</v>
@@ -5454,10 +5872,20 @@
       <c r="AF44" t="n" s="8">
         <v>8700.0</v>
       </c>
+      <c r="AG44" t="n" s="8">
+        <v>8475.0</v>
+      </c>
+      <c r="AH44" t="n" s="8">
+        <v>8798.0</v>
+      </c>
+      <c r="AI44" t="n" s="8">
+        <v>9110.0</v>
+      </c>
+      <c r="AJ44"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="7">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B45" t="n" s="10">
         <v>7.0</v>
@@ -5552,10 +5980,20 @@
       <c r="AF45" t="n" s="10">
         <v>9.1</v>
       </c>
+      <c r="AG45" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AH45" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI45" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ45"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="7">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B46" t="n" s="8">
         <v>5695.0</v>
@@ -5650,10 +6088,20 @@
       <c r="AF46" t="n" s="8">
         <v>6612.0</v>
       </c>
+      <c r="AG46" t="n" s="8">
+        <v>3962.0</v>
+      </c>
+      <c r="AH46" t="n" s="8">
+        <v>3195.0</v>
+      </c>
+      <c r="AI46" t="n" s="8">
+        <v>3128.0</v>
+      </c>
+      <c r="AJ46"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="7">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B47" t="n" s="8">
         <v>75647.0</v>
@@ -5748,10 +6196,20 @@
       <c r="AF47" t="n" s="8">
         <v>66186.0</v>
       </c>
+      <c r="AG47" t="n" s="8">
+        <v>65956.0</v>
+      </c>
+      <c r="AH47" t="n" s="8">
+        <v>68758.0</v>
+      </c>
+      <c r="AI47" t="n" s="8">
+        <v>71189.0</v>
+      </c>
+      <c r="AJ47"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="7">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B48" t="n" s="8">
         <v>81342.0</v>
@@ -5846,10 +6304,20 @@
       <c r="AF48" t="n" s="8">
         <v>72798.0</v>
       </c>
+      <c r="AG48" t="n" s="8">
+        <v>69918.0</v>
+      </c>
+      <c r="AH48" t="n" s="8">
+        <v>71953.0</v>
+      </c>
+      <c r="AI48" t="n" s="8">
+        <v>74317.0</v>
+      </c>
+      <c r="AJ48"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="7">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B49" t="n" s="10">
         <v>7.3</v>
@@ -5944,10 +6412,20 @@
       <c r="AF49" t="n" s="10">
         <v>8.4</v>
       </c>
+      <c r="AG49" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH49" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AI49" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ49"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="7">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B50" t="n" s="8">
         <v>1440.0</v>
@@ -6042,10 +6520,20 @@
       <c r="AF50" t="n" s="8">
         <v>1652.0</v>
       </c>
+      <c r="AG50" t="n" s="8">
+        <v>930.0</v>
+      </c>
+      <c r="AH50" t="n" s="8">
+        <v>792.0</v>
+      </c>
+      <c r="AI50" t="n" s="8">
+        <v>786.0</v>
+      </c>
+      <c r="AJ50"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="7">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B51" t="n" s="8">
         <v>18301.0</v>
@@ -6140,10 +6628,20 @@
       <c r="AF51" t="n" s="8">
         <v>18113.0</v>
       </c>
+      <c r="AG51" t="n" s="8">
+        <v>18300.0</v>
+      </c>
+      <c r="AH51" t="n" s="8">
+        <v>18912.0</v>
+      </c>
+      <c r="AI51" t="n" s="8">
+        <v>19439.0</v>
+      </c>
+      <c r="AJ51"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B52" t="n" s="8">
         <v>19741.0</v>
@@ -6238,10 +6736,20 @@
       <c r="AF52" t="n" s="8">
         <v>19765.0</v>
       </c>
+      <c r="AG52" t="n" s="8">
+        <v>19230.0</v>
+      </c>
+      <c r="AH52" t="n" s="8">
+        <v>19704.0</v>
+      </c>
+      <c r="AI52" t="n" s="8">
+        <v>20225.0</v>
+      </c>
+      <c r="AJ52"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B53" t="n" s="10">
         <v>7.3</v>
@@ -6336,10 +6844,20 @@
       <c r="AF53" t="n" s="10">
         <v>10.1</v>
       </c>
+      <c r="AG53" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH53" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI53" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ53"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B54" t="n" s="8">
         <v>4730.0</v>
@@ -6434,10 +6952,20 @@
       <c r="AF54" t="n" s="8">
         <v>6244.0</v>
       </c>
+      <c r="AG54" t="n" s="8">
+        <v>3774.0</v>
+      </c>
+      <c r="AH54" t="n" s="8">
+        <v>2822.0</v>
+      </c>
+      <c r="AI54" t="n" s="8">
+        <v>2685.0</v>
+      </c>
+      <c r="AJ54"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="7">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B55" t="n" s="8">
         <v>60206.0</v>
@@ -6532,10 +7060,20 @@
       <c r="AF55" t="n" s="8">
         <v>55834.0</v>
       </c>
+      <c r="AG55" t="n" s="8">
+        <v>55529.0</v>
+      </c>
+      <c r="AH55" t="n" s="8">
+        <v>57498.0</v>
+      </c>
+      <c r="AI55" t="n" s="8">
+        <v>59159.0</v>
+      </c>
+      <c r="AJ55"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="7">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B56" t="n" s="8">
         <v>64936.0</v>
@@ -6630,10 +7168,20 @@
       <c r="AF56" t="n" s="8">
         <v>62078.0</v>
       </c>
+      <c r="AG56" t="n" s="8">
+        <v>59303.0</v>
+      </c>
+      <c r="AH56" t="n" s="8">
+        <v>60320.0</v>
+      </c>
+      <c r="AI56" t="n" s="8">
+        <v>61844.0</v>
+      </c>
+      <c r="AJ56"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="7">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B57" t="n" s="10">
         <v>7.3</v>
@@ -6728,10 +7276,20 @@
       <c r="AF57" t="n" s="10">
         <v>9.2</v>
       </c>
+      <c r="AG57" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH57" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI57" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ57"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="7">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B58" t="n" s="8">
         <v>1802.0</v>
@@ -6826,10 +7384,20 @@
       <c r="AF58" t="n" s="8">
         <v>2244.0</v>
       </c>
+      <c r="AG58" t="n" s="8">
+        <v>1157.0</v>
+      </c>
+      <c r="AH58" t="n" s="8">
+        <v>1022.0</v>
+      </c>
+      <c r="AI58" t="n" s="8">
+        <v>1075.0</v>
+      </c>
+      <c r="AJ58"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="7">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B59" t="n" s="8">
         <v>22929.0</v>
@@ -6924,10 +7492,20 @@
       <c r="AF59" t="n" s="8">
         <v>22228.0</v>
       </c>
+      <c r="AG59" t="n" s="8">
+        <v>22002.0</v>
+      </c>
+      <c r="AH59" t="n" s="8">
+        <v>22667.0</v>
+      </c>
+      <c r="AI59" t="n" s="8">
+        <v>23178.0</v>
+      </c>
+      <c r="AJ59"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B60" t="n" s="8">
         <v>24731.0</v>
@@ -7022,10 +7600,20 @@
       <c r="AF60" t="n" s="8">
         <v>24472.0</v>
       </c>
+      <c r="AG60" t="n" s="8">
+        <v>23159.0</v>
+      </c>
+      <c r="AH60" t="n" s="8">
+        <v>23689.0</v>
+      </c>
+      <c r="AI60" t="n" s="8">
+        <v>24253.0</v>
+      </c>
+      <c r="AJ60"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="7">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B61" t="n" s="10">
         <v>8.4</v>
@@ -7120,10 +7708,20 @@
       <c r="AF61" t="n" s="10">
         <v>10.2</v>
       </c>
+      <c r="AG61" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH61" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI61" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ61"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="7">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B62" t="n" s="8">
         <v>944.0</v>
@@ -7218,10 +7816,20 @@
       <c r="AF62" t="n" s="8">
         <v>1279.0</v>
       </c>
+      <c r="AG62" t="n" s="8">
+        <v>717.0</v>
+      </c>
+      <c r="AH62" t="n" s="8">
+        <v>593.0</v>
+      </c>
+      <c r="AI62" t="n" s="8">
+        <v>600.0</v>
+      </c>
+      <c r="AJ62"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="7">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B63" t="n" s="8">
         <v>10343.0</v>
@@ -7316,10 +7924,20 @@
       <c r="AF63" t="n" s="8">
         <v>11285.0</v>
       </c>
+      <c r="AG63" t="n" s="8">
+        <v>11616.0</v>
+      </c>
+      <c r="AH63" t="n" s="8">
+        <v>12290.0</v>
+      </c>
+      <c r="AI63" t="n" s="8">
+        <v>12532.0</v>
+      </c>
+      <c r="AJ63"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="7">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B64" t="n" s="8">
         <v>11287.0</v>
@@ -7414,10 +8032,20 @@
       <c r="AF64" t="n" s="8">
         <v>12564.0</v>
       </c>
+      <c r="AG64" t="n" s="8">
+        <v>12333.0</v>
+      </c>
+      <c r="AH64" t="n" s="8">
+        <v>12883.0</v>
+      </c>
+      <c r="AI64" t="n" s="8">
+        <v>13132.0</v>
+      </c>
+      <c r="AJ64"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="7">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B65" t="n" s="10">
         <v>12.0</v>
@@ -7512,10 +8140,20 @@
       <c r="AF65" t="n" s="10">
         <v>14.8</v>
       </c>
+      <c r="AG65" t="n" s="10">
+        <v>8.3</v>
+      </c>
+      <c r="AH65" t="n" s="10">
+        <v>8.1</v>
+      </c>
+      <c r="AI65" t="n" s="10">
+        <v>8.2</v>
+      </c>
+      <c r="AJ65"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="7">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B66" t="n" s="8">
         <v>1256.0</v>
@@ -7610,10 +8248,20 @@
       <c r="AF66" t="n" s="8">
         <v>1532.0</v>
       </c>
+      <c r="AG66" t="n" s="8">
+        <v>830.0</v>
+      </c>
+      <c r="AH66" t="n" s="8">
+        <v>840.0</v>
+      </c>
+      <c r="AI66" t="n" s="8">
+        <v>853.0</v>
+      </c>
+      <c r="AJ66"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="7">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="n" s="8">
         <v>9254.0</v>
@@ -7708,10 +8356,20 @@
       <c r="AF67" t="n" s="8">
         <v>8818.0</v>
       </c>
+      <c r="AG67" t="n" s="8">
+        <v>9188.0</v>
+      </c>
+      <c r="AH67" t="n" s="8">
+        <v>9534.0</v>
+      </c>
+      <c r="AI67" t="n" s="8">
+        <v>9551.0</v>
+      </c>
+      <c r="AJ67"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="7">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="n" s="8">
         <v>10510.0</v>
@@ -7806,10 +8464,20 @@
       <c r="AF68" t="n" s="8">
         <v>10350.0</v>
       </c>
+      <c r="AG68" t="n" s="8">
+        <v>10018.0</v>
+      </c>
+      <c r="AH68" t="n" s="8">
+        <v>10374.0</v>
+      </c>
+      <c r="AI68" t="n" s="8">
+        <v>10404.0</v>
+      </c>
+      <c r="AJ68"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="7">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="n" s="10">
         <v>11.3</v>
@@ -7904,10 +8572,20 @@
       <c r="AF69" t="n" s="10">
         <v>9.4</v>
       </c>
+      <c r="AG69" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AH69" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AI69" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AJ69"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="7">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B70" t="n" s="8">
         <v>1662.0</v>
@@ -8002,10 +8680,20 @@
       <c r="AF70" t="n" s="8">
         <v>1501.0</v>
       </c>
+      <c r="AG70" t="n" s="8">
+        <v>1004.0</v>
+      </c>
+      <c r="AH70" t="n" s="8">
+        <v>998.0</v>
+      </c>
+      <c r="AI70" t="n" s="8">
+        <v>967.0</v>
+      </c>
+      <c r="AJ70"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="7">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B71" t="n" s="8">
         <v>12982.0</v>
@@ -8100,10 +8788,20 @@
       <c r="AF71" t="n" s="8">
         <v>14479.0</v>
       </c>
+      <c r="AG71" t="n" s="8">
+        <v>14588.0</v>
+      </c>
+      <c r="AH71" t="n" s="8">
+        <v>14985.0</v>
+      </c>
+      <c r="AI71" t="n" s="8">
+        <v>15393.0</v>
+      </c>
+      <c r="AJ71"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="7">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B72" t="n" s="8">
         <v>14644.0</v>
@@ -8198,10 +8896,20 @@
       <c r="AF72" t="n" s="8">
         <v>15980.0</v>
       </c>
+      <c r="AG72" t="n" s="8">
+        <v>15592.0</v>
+      </c>
+      <c r="AH72" t="n" s="8">
+        <v>15983.0</v>
+      </c>
+      <c r="AI72" t="n" s="8">
+        <v>16360.0</v>
+      </c>
+      <c r="AJ72"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="7">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73" t="n" s="10">
         <v>10.7</v>
@@ -8296,10 +9004,20 @@
       <c r="AF73" t="n" s="10">
         <v>12.0</v>
       </c>
+      <c r="AG73" t="n" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="AH73" t="n" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="AI73" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AJ73"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B74" t="n" s="8">
         <v>993.0</v>
@@ -8394,10 +9112,20 @@
       <c r="AF74" t="n" s="8">
         <v>1412.0</v>
       </c>
+      <c r="AG74" t="n" s="8">
+        <v>869.0</v>
+      </c>
+      <c r="AH74" t="n" s="8">
+        <v>768.0</v>
+      </c>
+      <c r="AI74" t="n" s="8">
+        <v>750.0</v>
+      </c>
+      <c r="AJ74"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="7">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B75" t="n" s="8">
         <v>8280.0</v>
@@ -8492,10 +9220,20 @@
       <c r="AF75" t="n" s="8">
         <v>10344.0</v>
       </c>
+      <c r="AG75" t="n" s="8">
+        <v>10285.0</v>
+      </c>
+      <c r="AH75" t="n" s="8">
+        <v>10648.0</v>
+      </c>
+      <c r="AI75" t="n" s="8">
+        <v>11132.0</v>
+      </c>
+      <c r="AJ75"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B76" t="n" s="8">
         <v>9273.0</v>
@@ -8590,10 +9328,20 @@
       <c r="AF76" t="n" s="8">
         <v>11756.0</v>
       </c>
+      <c r="AG76" t="n" s="8">
+        <v>11154.0</v>
+      </c>
+      <c r="AH76" t="n" s="8">
+        <v>11416.0</v>
+      </c>
+      <c r="AI76" t="n" s="8">
+        <v>11882.0</v>
+      </c>
+      <c r="AJ76"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="7">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" t="n" s="10">
         <v>6.4</v>
@@ -8688,10 +9436,20 @@
       <c r="AF77" t="n" s="10">
         <v>6.8</v>
       </c>
+      <c r="AG77" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH77" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI77" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ77"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="7">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B78" t="n" s="8">
         <v>1995.0</v>
@@ -8786,10 +9544,20 @@
       <c r="AF78" t="n" s="8">
         <v>2731.0</v>
       </c>
+      <c r="AG78" t="n" s="8">
+        <v>1708.0</v>
+      </c>
+      <c r="AH78" t="n" s="8">
+        <v>1529.0</v>
+      </c>
+      <c r="AI78" t="n" s="8">
+        <v>1404.0</v>
+      </c>
+      <c r="AJ78"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B79" t="n" s="8">
         <v>29414.0</v>
@@ -8884,10 +9652,20 @@
       <c r="AF79" t="n" s="8">
         <v>37663.0</v>
       </c>
+      <c r="AG79" t="n" s="8">
+        <v>37258.0</v>
+      </c>
+      <c r="AH79" t="n" s="8">
+        <v>38788.0</v>
+      </c>
+      <c r="AI79" t="n" s="8">
+        <v>40741.0</v>
+      </c>
+      <c r="AJ79"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B80" t="n" s="8">
         <v>31409.0</v>
@@ -8982,10 +9760,20 @@
       <c r="AF80" t="n" s="8">
         <v>40394.0</v>
       </c>
+      <c r="AG80" t="n" s="8">
+        <v>38966.0</v>
+      </c>
+      <c r="AH80" t="n" s="8">
+        <v>40317.0</v>
+      </c>
+      <c r="AI80" t="n" s="8">
+        <v>42145.0</v>
+      </c>
+      <c r="AJ80"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="7">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B81" t="n" s="10">
         <v>6.7</v>
@@ -9080,10 +9868,20 @@
       <c r="AF81" t="n" s="10">
         <v>10.9</v>
       </c>
+      <c r="AG81" t="n" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="AH81" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AI81" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AJ81"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="7">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B82" t="n" s="8">
         <v>361.0</v>
@@ -9178,10 +9976,20 @@
       <c r="AF82" t="n" s="8">
         <v>614.0</v>
       </c>
+      <c r="AG82" t="n" s="8">
+        <v>368.0</v>
+      </c>
+      <c r="AH82" t="n" s="8">
+        <v>352.0</v>
+      </c>
+      <c r="AI82" t="n" s="8">
+        <v>333.0</v>
+      </c>
+      <c r="AJ82"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="7">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B83" t="n" s="8">
         <v>5013.0</v>
@@ -9276,10 +10084,20 @@
       <c r="AF83" t="n" s="8">
         <v>5002.0</v>
       </c>
+      <c r="AG83" t="n" s="8">
+        <v>5003.0</v>
+      </c>
+      <c r="AH83" t="n" s="8">
+        <v>5127.0</v>
+      </c>
+      <c r="AI83" t="n" s="8">
+        <v>5353.0</v>
+      </c>
+      <c r="AJ83"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="7">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B84" t="n" s="8">
         <v>5374.0</v>
@@ -9374,10 +10192,20 @@
       <c r="AF84" t="n" s="8">
         <v>5616.0</v>
       </c>
+      <c r="AG84" t="n" s="8">
+        <v>5371.0</v>
+      </c>
+      <c r="AH84" t="n" s="8">
+        <v>5479.0</v>
+      </c>
+      <c r="AI84" t="n" s="8">
+        <v>5686.0</v>
+      </c>
+      <c r="AJ84"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="7">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B85" t="n" s="10">
         <v>9.3</v>
@@ -9472,10 +10300,20 @@
       <c r="AF85" t="n" s="10">
         <v>9.1</v>
       </c>
+      <c r="AG85" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH85" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AI85" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AJ85"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B86" t="n" s="8">
         <v>1586.0</v>
@@ -9570,10 +10408,20 @@
       <c r="AF86" t="n" s="8">
         <v>1536.0</v>
       </c>
+      <c r="AG86" t="n" s="8">
+        <v>977.0</v>
+      </c>
+      <c r="AH86" t="n" s="8">
+        <v>905.0</v>
+      </c>
+      <c r="AI86" t="n" s="8">
+        <v>882.0</v>
+      </c>
+      <c r="AJ86"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="7">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B87" t="n" s="8">
         <v>15387.0</v>
@@ -9668,10 +10516,20 @@
       <c r="AF87" t="n" s="8">
         <v>15363.0</v>
       </c>
+      <c r="AG87" t="n" s="8">
+        <v>15377.0</v>
+      </c>
+      <c r="AH87" t="n" s="8">
+        <v>15761.0</v>
+      </c>
+      <c r="AI87" t="n" s="8">
+        <v>16074.0</v>
+      </c>
+      <c r="AJ87"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="7">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B88" t="n" s="8">
         <v>16973.0</v>
@@ -9766,10 +10624,20 @@
       <c r="AF88" t="n" s="8">
         <v>16899.0</v>
       </c>
+      <c r="AG88" t="n" s="8">
+        <v>16354.0</v>
+      </c>
+      <c r="AH88" t="n" s="8">
+        <v>16666.0</v>
+      </c>
+      <c r="AI88" t="n" s="8">
+        <v>16956.0</v>
+      </c>
+      <c r="AJ88"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="7">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" t="n" s="10">
         <v>7.6</v>
@@ -9864,10 +10732,20 @@
       <c r="AF89" t="n" s="10">
         <v>7.4</v>
       </c>
+      <c r="AG89" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH89" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI89" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ89"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="7">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B90" t="n" s="8">
         <v>944.0</v>
@@ -9962,10 +10840,20 @@
       <c r="AF90" t="n" s="8">
         <v>897.0</v>
       </c>
+      <c r="AG90" t="n" s="8">
+        <v>571.0</v>
+      </c>
+      <c r="AH90" t="n" s="8">
+        <v>519.0</v>
+      </c>
+      <c r="AI90" t="n" s="8">
+        <v>481.0</v>
+      </c>
+      <c r="AJ90"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="7">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B91" t="n" s="8">
         <v>11548.0</v>
@@ -10060,10 +10948,20 @@
       <c r="AF91" t="n" s="8">
         <v>11280.0</v>
       </c>
+      <c r="AG91" t="n" s="8">
+        <v>11627.0</v>
+      </c>
+      <c r="AH91" t="n" s="8">
+        <v>11737.0</v>
+      </c>
+      <c r="AI91" t="n" s="8">
+        <v>12179.0</v>
+      </c>
+      <c r="AJ91"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="7">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B92" t="n" s="8">
         <v>12492.0</v>
@@ -10158,10 +11056,20 @@
       <c r="AF92" t="n" s="8">
         <v>12177.0</v>
       </c>
+      <c r="AG92" t="n" s="8">
+        <v>12198.0</v>
+      </c>
+      <c r="AH92" t="n" s="8">
+        <v>12256.0</v>
+      </c>
+      <c r="AI92" t="n" s="8">
+        <v>12660.0</v>
+      </c>
+      <c r="AJ92"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="7">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B93" t="n" s="10">
         <v>5.9</v>
@@ -10256,10 +11164,20 @@
       <c r="AF93" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG93" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH93" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI93" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ93"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="7">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B94" t="n" s="8">
         <v>3045.0</v>
@@ -10354,10 +11272,20 @@
       <c r="AF94" t="n" s="8">
         <v>4464.0</v>
       </c>
+      <c r="AG94" t="n" s="8">
+        <v>2838.0</v>
+      </c>
+      <c r="AH94" t="n" s="8">
+        <v>2420.0</v>
+      </c>
+      <c r="AI94" t="n" s="8">
+        <v>2108.0</v>
+      </c>
+      <c r="AJ94"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="7">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B95" t="n" s="8">
         <v>48362.0</v>
@@ -10452,10 +11380,20 @@
       <c r="AF95" t="n" s="8">
         <v>51916.0</v>
       </c>
+      <c r="AG95" t="n" s="8">
+        <v>51321.0</v>
+      </c>
+      <c r="AH95" t="n" s="8">
+        <v>53741.0</v>
+      </c>
+      <c r="AI95" t="n" s="8">
+        <v>56252.0</v>
+      </c>
+      <c r="AJ95"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="7">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" t="n" s="8">
         <v>51407.0</v>
@@ -10550,10 +11488,20 @@
       <c r="AF96" t="n" s="8">
         <v>56380.0</v>
       </c>
+      <c r="AG96" t="n" s="8">
+        <v>54159.0</v>
+      </c>
+      <c r="AH96" t="n" s="8">
+        <v>56161.0</v>
+      </c>
+      <c r="AI96" t="n" s="8">
+        <v>58360.0</v>
+      </c>
+      <c r="AJ96"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="7">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B97" t="n" s="10">
         <v>9.4</v>
@@ -10648,10 +11596,20 @@
       <c r="AF97" t="n" s="10">
         <v>10.7</v>
       </c>
+      <c r="AG97" t="n" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AH97" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AI97" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AJ97"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="7">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B98" t="n" s="8">
         <v>1332.0</v>
@@ -10746,10 +11704,20 @@
       <c r="AF98" t="n" s="8">
         <v>1850.0</v>
       </c>
+      <c r="AG98" t="n" s="8">
+        <v>1011.0</v>
+      </c>
+      <c r="AH98" t="n" s="8">
+        <v>914.0</v>
+      </c>
+      <c r="AI98" t="n" s="8">
+        <v>954.0</v>
+      </c>
+      <c r="AJ98"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="7">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B99" t="n" s="8">
         <v>12815.0</v>
@@ -10844,10 +11812,20 @@
       <c r="AF99" t="n" s="8">
         <v>15387.0</v>
       </c>
+      <c r="AG99" t="n" s="8">
+        <v>15532.0</v>
+      </c>
+      <c r="AH99" t="n" s="8">
+        <v>15991.0</v>
+      </c>
+      <c r="AI99" t="n" s="8">
+        <v>15687.0</v>
+      </c>
+      <c r="AJ99"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="7">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" t="n" s="8">
         <v>14147.0</v>
@@ -10942,10 +11920,20 @@
       <c r="AF100" t="n" s="8">
         <v>17237.0</v>
       </c>
+      <c r="AG100" t="n" s="8">
+        <v>16543.0</v>
+      </c>
+      <c r="AH100" t="n" s="8">
+        <v>16905.0</v>
+      </c>
+      <c r="AI100" t="n" s="8">
+        <v>16641.0</v>
+      </c>
+      <c r="AJ100"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="7">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B101" t="n" s="10">
         <v>9.5</v>
@@ -11040,10 +12028,20 @@
       <c r="AF101" t="n" s="10">
         <v>11.6</v>
       </c>
+      <c r="AG101" t="n" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="AH101" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AI101" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AJ101"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B102" t="n" s="8">
         <v>19044.0</v>
@@ -11138,10 +12136,20 @@
       <c r="AF102" t="n" s="8">
         <v>20865.0</v>
       </c>
+      <c r="AG102" t="n" s="8">
+        <v>12834.0</v>
+      </c>
+      <c r="AH102" t="n" s="8">
+        <v>9745.0</v>
+      </c>
+      <c r="AI102" t="n" s="8">
+        <v>9125.0</v>
+      </c>
+      <c r="AJ102"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="7">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B103" t="n" s="8">
         <v>181180.0</v>
@@ -11236,10 +12244,20 @@
       <c r="AF103" t="n" s="8">
         <v>159533.0</v>
       </c>
+      <c r="AG103" t="n" s="8">
+        <v>162234.0</v>
+      </c>
+      <c r="AH103" t="n" s="8">
+        <v>169352.0</v>
+      </c>
+      <c r="AI103" t="n" s="8">
+        <v>174637.0</v>
+      </c>
+      <c r="AJ103"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="7">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" t="n" s="8">
         <v>200224.0</v>
@@ -11334,10 +12352,20 @@
       <c r="AF104" t="n" s="8">
         <v>180398.0</v>
       </c>
+      <c r="AG104" t="n" s="8">
+        <v>175068.0</v>
+      </c>
+      <c r="AH104" t="n" s="8">
+        <v>179097.0</v>
+      </c>
+      <c r="AI104" t="n" s="8">
+        <v>183762.0</v>
+      </c>
+      <c r="AJ104"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="7">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" t="n" s="10">
         <v>9.7</v>
@@ -11432,10 +12460,20 @@
       <c r="AF105" t="n" s="10">
         <v>10.1</v>
       </c>
+      <c r="AG105" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AH105" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AI105" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AJ105"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="7">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B106" t="n" s="8">
         <v>785.0</v>
@@ -11530,10 +12568,20 @@
       <c r="AF106" t="n" s="8">
         <v>1000.0</v>
       </c>
+      <c r="AG106" t="n" s="8">
+        <v>659.0</v>
+      </c>
+      <c r="AH106" t="n" s="8">
+        <v>587.0</v>
+      </c>
+      <c r="AI106" t="n" s="8">
+        <v>608.0</v>
+      </c>
+      <c r="AJ106"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="7">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B107" t="n" s="8">
         <v>7317.0</v>
@@ -11628,10 +12676,20 @@
       <c r="AF107" t="n" s="8">
         <v>8875.0</v>
       </c>
+      <c r="AG107" t="n" s="8">
+        <v>9035.0</v>
+      </c>
+      <c r="AH107" t="n" s="8">
+        <v>9416.0</v>
+      </c>
+      <c r="AI107" t="n" s="8">
+        <v>9754.0</v>
+      </c>
+      <c r="AJ107"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="7">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B108" t="n" s="8">
         <v>8102.0</v>
@@ -11726,10 +12784,20 @@
       <c r="AF108" t="n" s="8">
         <v>9875.0</v>
       </c>
+      <c r="AG108" t="n" s="8">
+        <v>9694.0</v>
+      </c>
+      <c r="AH108" t="n" s="8">
+        <v>10003.0</v>
+      </c>
+      <c r="AI108" t="n" s="8">
+        <v>10362.0</v>
+      </c>
+      <c r="AJ108"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="7">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B109" t="n" s="10">
         <v>8.2</v>
@@ -11824,10 +12892,20 @@
       <c r="AF109" t="n" s="10">
         <v>8.1</v>
       </c>
+      <c r="AG109" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH109" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI109" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ109"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="7">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B110" t="n" s="8">
         <v>598.0</v>
@@ -11922,10 +13000,20 @@
       <c r="AF110" t="n" s="8">
         <v>471.0</v>
       </c>
+      <c r="AG110" t="n" s="8">
+        <v>304.0</v>
+      </c>
+      <c r="AH110" t="n" s="8">
+        <v>290.0</v>
+      </c>
+      <c r="AI110" t="n" s="8">
+        <v>281.0</v>
+      </c>
+      <c r="AJ110"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="7">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B111" t="n" s="8">
         <v>6678.0</v>
@@ -12020,10 +13108,20 @@
       <c r="AF111" t="n" s="8">
         <v>5370.0</v>
       </c>
+      <c r="AG111" t="n" s="8">
+        <v>5317.0</v>
+      </c>
+      <c r="AH111" t="n" s="8">
+        <v>5466.0</v>
+      </c>
+      <c r="AI111" t="n" s="8">
+        <v>5641.0</v>
+      </c>
+      <c r="AJ111"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="7">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B112" t="n" s="8">
         <v>7276.0</v>
@@ -12118,10 +13216,20 @@
       <c r="AF112" t="n" s="8">
         <v>5841.0</v>
       </c>
+      <c r="AG112" t="n" s="8">
+        <v>5621.0</v>
+      </c>
+      <c r="AH112" t="n" s="8">
+        <v>5756.0</v>
+      </c>
+      <c r="AI112" t="n" s="8">
+        <v>5922.0</v>
+      </c>
+      <c r="AJ112"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="7">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B113" t="n" s="10">
         <v>6.8</v>
@@ -12216,10 +13324,20 @@
       <c r="AF113" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG113" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH113" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI113" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AJ113"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="7">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B114" t="n" s="8">
         <v>2457.0</v>
@@ -12314,10 +13432,20 @@
       <c r="AF114" t="n" s="8">
         <v>4262.0</v>
       </c>
+      <c r="AG114" t="n" s="8">
+        <v>2351.0</v>
+      </c>
+      <c r="AH114" t="n" s="8">
+        <v>1822.0</v>
+      </c>
+      <c r="AI114" t="n" s="8">
+        <v>1740.0</v>
+      </c>
+      <c r="AJ114"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="7">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B115" t="n" s="8">
         <v>33582.0</v>
@@ -12412,10 +13540,20 @@
       <c r="AF115" t="n" s="8">
         <v>44977.0</v>
       </c>
+      <c r="AG115" t="n" s="8">
+        <v>45716.0</v>
+      </c>
+      <c r="AH115" t="n" s="8">
+        <v>47908.0</v>
+      </c>
+      <c r="AI115" t="n" s="8">
+        <v>49642.0</v>
+      </c>
+      <c r="AJ115"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="7">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B116" t="n" s="8">
         <v>36039.0</v>
@@ -12510,10 +13648,20 @@
       <c r="AF116" t="n" s="8">
         <v>49239.0</v>
       </c>
+      <c r="AG116" t="n" s="8">
+        <v>48067.0</v>
+      </c>
+      <c r="AH116" t="n" s="8">
+        <v>49730.0</v>
+      </c>
+      <c r="AI116" t="n" s="8">
+        <v>51382.0</v>
+      </c>
+      <c r="AJ116"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="7">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B117" t="n" s="10">
         <v>8.9</v>
@@ -12608,10 +13756,20 @@
       <c r="AF117" t="n" s="10">
         <v>8.3</v>
       </c>
+      <c r="AG117" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH117" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI117" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ117"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="7">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B118" t="n" s="8">
         <v>1643.0</v>
@@ -12706,10 +13864,20 @@
       <c r="AF118" t="n" s="8">
         <v>1478.0</v>
       </c>
+      <c r="AG118" t="n" s="8">
+        <v>932.0</v>
+      </c>
+      <c r="AH118" t="n" s="8">
+        <v>787.0</v>
+      </c>
+      <c r="AI118" t="n" s="8">
+        <v>785.0</v>
+      </c>
+      <c r="AJ118"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="7">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B119" t="n" s="8">
         <v>16851.0</v>
@@ -12804,10 +13972,20 @@
       <c r="AF119" t="n" s="8">
         <v>16399.0</v>
       </c>
+      <c r="AG119" t="n" s="8">
+        <v>16124.0</v>
+      </c>
+      <c r="AH119" t="n" s="8">
+        <v>16609.0</v>
+      </c>
+      <c r="AI119" t="n" s="8">
+        <v>17168.0</v>
+      </c>
+      <c r="AJ119"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="7">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B120" t="n" s="8">
         <v>18494.0</v>
@@ -12902,10 +14080,20 @@
       <c r="AF120" t="n" s="8">
         <v>17877.0</v>
       </c>
+      <c r="AG120" t="n" s="8">
+        <v>17056.0</v>
+      </c>
+      <c r="AH120" t="n" s="8">
+        <v>17396.0</v>
+      </c>
+      <c r="AI120" t="n" s="8">
+        <v>17953.0</v>
+      </c>
+      <c r="AJ120"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="7">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B121" t="n" s="10">
         <v>8.6</v>
@@ -13000,10 +14188,20 @@
       <c r="AF121" t="n" s="10">
         <v>9.3</v>
       </c>
+      <c r="AG121" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH121" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI121" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ121"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B122" t="n" s="8">
         <v>1818.0</v>
@@ -13098,10 +14296,20 @@
       <c r="AF122" t="n" s="8">
         <v>1886.0</v>
       </c>
+      <c r="AG122" t="n" s="8">
+        <v>1059.0</v>
+      </c>
+      <c r="AH122" t="n" s="8">
+        <v>904.0</v>
+      </c>
+      <c r="AI122" t="n" s="8">
+        <v>878.0</v>
+      </c>
+      <c r="AJ122"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="7">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B123" t="n" s="8">
         <v>19279.0</v>
@@ -13196,10 +14404,20 @@
       <c r="AF123" t="n" s="8">
         <v>18298.0</v>
       </c>
+      <c r="AG123" t="n" s="8">
+        <v>18709.0</v>
+      </c>
+      <c r="AH123" t="n" s="8">
+        <v>19223.0</v>
+      </c>
+      <c r="AI123" t="n" s="8">
+        <v>19821.0</v>
+      </c>
+      <c r="AJ123"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B124" t="n" s="8">
         <v>21097.0</v>
@@ -13294,10 +14512,20 @@
       <c r="AF124" t="n" s="8">
         <v>20184.0</v>
       </c>
+      <c r="AG124" t="n" s="8">
+        <v>19768.0</v>
+      </c>
+      <c r="AH124" t="n" s="8">
+        <v>20127.0</v>
+      </c>
+      <c r="AI124" t="n" s="8">
+        <v>20699.0</v>
+      </c>
+      <c r="AJ124"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="7">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B125" t="n" s="10">
         <v>7.5</v>
@@ -13392,10 +14620,20 @@
       <c r="AF125" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG125" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH125" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI125" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ125"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="7">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B126" t="n" s="8">
         <v>1088.0</v>
@@ -13490,10 +14728,20 @@
       <c r="AF126" t="n" s="8">
         <v>1215.0</v>
       </c>
+      <c r="AG126" t="n" s="8">
+        <v>779.0</v>
+      </c>
+      <c r="AH126" t="n" s="8">
+        <v>768.0</v>
+      </c>
+      <c r="AI126" t="n" s="8">
+        <v>793.0</v>
+      </c>
+      <c r="AJ126"/>
     </row>
     <row r="127">
       <c r="A127" t="s" s="7">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B127" t="n" s="8">
         <v>13512.0</v>
@@ -13588,10 +14836,20 @@
       <c r="AF127" t="n" s="8">
         <v>14744.0</v>
       </c>
+      <c r="AG127" t="n" s="8">
+        <v>15013.0</v>
+      </c>
+      <c r="AH127" t="n" s="8">
+        <v>15477.0</v>
+      </c>
+      <c r="AI127" t="n" s="8">
+        <v>16341.0</v>
+      </c>
+      <c r="AJ127"/>
     </row>
     <row r="128">
       <c r="A128" t="s" s="7">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B128" t="n" s="8">
         <v>14600.0</v>
@@ -13686,10 +14944,20 @@
       <c r="AF128" t="n" s="8">
         <v>15959.0</v>
       </c>
+      <c r="AG128" t="n" s="8">
+        <v>15792.0</v>
+      </c>
+      <c r="AH128" t="n" s="8">
+        <v>16245.0</v>
+      </c>
+      <c r="AI128" t="n" s="8">
+        <v>17134.0</v>
+      </c>
+      <c r="AJ128"/>
     </row>
     <row r="129">
       <c r="A129" t="s" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B129" t="n" s="10">
         <v>10.4</v>
@@ -13784,10 +15052,20 @@
       <c r="AF129" t="n" s="10">
         <v>8.8</v>
       </c>
+      <c r="AG129" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AH129" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI129" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ129"/>
     </row>
     <row r="130">
       <c r="A130" t="s" s="7">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B130" t="n" s="8">
         <v>1650.0</v>
@@ -13882,10 +15160,20 @@
       <c r="AF130" t="n" s="8">
         <v>1364.0</v>
       </c>
+      <c r="AG130" t="n" s="8">
+        <v>783.0</v>
+      </c>
+      <c r="AH130" t="n" s="8">
+        <v>690.0</v>
+      </c>
+      <c r="AI130" t="n" s="8">
+        <v>676.0</v>
+      </c>
+      <c r="AJ130"/>
     </row>
     <row r="131">
       <c r="A131" t="s" s="7">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B131" t="n" s="8">
         <v>14292.0</v>
@@ -13980,10 +15268,20 @@
       <c r="AF131" t="n" s="8">
         <v>14125.0</v>
       </c>
+      <c r="AG131" t="n" s="8">
+        <v>14047.0</v>
+      </c>
+      <c r="AH131" t="n" s="8">
+        <v>14303.0</v>
+      </c>
+      <c r="AI131" t="n" s="8">
+        <v>14913.0</v>
+      </c>
+      <c r="AJ131"/>
     </row>
     <row r="132">
       <c r="A132" t="s" s="7">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B132" t="n" s="8">
         <v>15942.0</v>
@@ -14078,10 +15376,20 @@
       <c r="AF132" t="n" s="8">
         <v>15489.0</v>
       </c>
+      <c r="AG132" t="n" s="8">
+        <v>14830.0</v>
+      </c>
+      <c r="AH132" t="n" s="8">
+        <v>14993.0</v>
+      </c>
+      <c r="AI132" t="n" s="8">
+        <v>15589.0</v>
+      </c>
+      <c r="AJ132"/>
     </row>
     <row r="133">
       <c r="A133" t="s" s="7">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B133" t="n" s="10">
         <v>6.2</v>
@@ -14176,10 +15484,20 @@
       <c r="AF133" t="n" s="10">
         <v>7.8</v>
       </c>
+      <c r="AG133" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH133" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI133" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AJ133"/>
     </row>
     <row r="134">
       <c r="A134" t="s" s="7">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B134" t="n" s="8">
         <v>9316.0</v>
@@ -14274,10 +15592,20 @@
       <c r="AF134" t="n" s="8">
         <v>11474.0</v>
       </c>
+      <c r="AG134" t="n" s="8">
+        <v>7783.0</v>
+      </c>
+      <c r="AH134" t="n" s="8">
+        <v>6337.0</v>
+      </c>
+      <c r="AI134" t="n" s="8">
+        <v>5904.0</v>
+      </c>
+      <c r="AJ134"/>
     </row>
     <row r="135">
       <c r="A135" t="s" s="7">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B135" t="n" s="8">
         <v>141791.0</v>
@@ -14372,10 +15700,20 @@
       <c r="AF135" t="n" s="8">
         <v>135611.0</v>
       </c>
+      <c r="AG135" t="n" s="8">
+        <v>134052.0</v>
+      </c>
+      <c r="AH135" t="n" s="8">
+        <v>140394.0</v>
+      </c>
+      <c r="AI135" t="n" s="8">
+        <v>147008.0</v>
+      </c>
+      <c r="AJ135"/>
     </row>
     <row r="136">
       <c r="A136" t="s" s="7">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B136" t="n" s="8">
         <v>151107.0</v>
@@ -14470,10 +15808,20 @@
       <c r="AF136" t="n" s="8">
         <v>147085.0</v>
       </c>
+      <c r="AG136" t="n" s="8">
+        <v>141835.0</v>
+      </c>
+      <c r="AH136" t="n" s="8">
+        <v>146731.0</v>
+      </c>
+      <c r="AI136" t="n" s="8">
+        <v>152912.0</v>
+      </c>
+      <c r="AJ136"/>
     </row>
     <row r="137">
       <c r="A137" t="s" s="7">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B137" t="n" s="10">
         <v>9.9</v>
@@ -14568,10 +15916,20 @@
       <c r="AF137" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG137" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AH137" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI137" t="n" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="AJ137"/>
     </row>
     <row r="138">
       <c r="A138" t="s" s="7">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B138" t="n" s="8">
         <v>2689.0</v>
@@ -14666,10 +16024,20 @@
       <c r="AF138" t="n" s="8">
         <v>2489.0</v>
       </c>
+      <c r="AG138" t="n" s="8">
+        <v>1390.0</v>
+      </c>
+      <c r="AH138" t="n" s="8">
+        <v>1153.0</v>
+      </c>
+      <c r="AI138" t="n" s="8">
+        <v>1141.0</v>
+      </c>
+      <c r="AJ138"/>
     </row>
     <row r="139">
       <c r="A139" t="s" s="7">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B139" t="n" s="8">
         <v>24372.0</v>
@@ -14764,10 +16132,20 @@
       <c r="AF139" t="n" s="8">
         <v>27784.0</v>
       </c>
+      <c r="AG139" t="n" s="8">
+        <v>28303.0</v>
+      </c>
+      <c r="AH139" t="n" s="8">
+        <v>29354.0</v>
+      </c>
+      <c r="AI139" t="n" s="8">
+        <v>30389.0</v>
+      </c>
+      <c r="AJ139"/>
     </row>
     <row r="140">
       <c r="A140" t="s" s="7">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B140" t="n" s="8">
         <v>27061.0</v>
@@ -14862,10 +16240,20 @@
       <c r="AF140" t="n" s="8">
         <v>30273.0</v>
       </c>
+      <c r="AG140" t="n" s="8">
+        <v>29693.0</v>
+      </c>
+      <c r="AH140" t="n" s="8">
+        <v>30507.0</v>
+      </c>
+      <c r="AI140" t="n" s="8">
+        <v>31530.0</v>
+      </c>
+      <c r="AJ140"/>
     </row>
     <row r="141">
       <c r="A141" t="s" s="7">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B141" t="n" s="10">
         <v>8.5</v>
@@ -14960,10 +16348,20 @@
       <c r="AF141" t="n" s="10">
         <v>10.9</v>
       </c>
+      <c r="AG141" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="AH141" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AI141" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AJ141"/>
     </row>
     <row r="142">
       <c r="A142" t="s" s="7">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B142" t="n" s="8">
         <v>944.0</v>
@@ -15058,10 +16456,20 @@
       <c r="AF142" t="n" s="8">
         <v>1105.0</v>
       </c>
+      <c r="AG142" t="n" s="8">
+        <v>689.0</v>
+      </c>
+      <c r="AH142" t="n" s="8">
+        <v>642.0</v>
+      </c>
+      <c r="AI142" t="n" s="8">
+        <v>625.0</v>
+      </c>
+      <c r="AJ142"/>
     </row>
     <row r="143">
       <c r="A143" t="s" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B143" t="n" s="8">
         <v>10222.0</v>
@@ -15156,10 +16564,20 @@
       <c r="AF143" t="n" s="8">
         <v>9048.0</v>
       </c>
+      <c r="AG143" t="n" s="8">
+        <v>9147.0</v>
+      </c>
+      <c r="AH143" t="n" s="8">
+        <v>9619.0</v>
+      </c>
+      <c r="AI143" t="n" s="8">
+        <v>9860.0</v>
+      </c>
+      <c r="AJ143"/>
     </row>
     <row r="144">
       <c r="A144" t="s" s="7">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B144" t="n" s="8">
         <v>11166.0</v>
@@ -15254,10 +16672,20 @@
       <c r="AF144" t="n" s="8">
         <v>10153.0</v>
       </c>
+      <c r="AG144" t="n" s="8">
+        <v>9836.0</v>
+      </c>
+      <c r="AH144" t="n" s="8">
+        <v>10261.0</v>
+      </c>
+      <c r="AI144" t="n" s="8">
+        <v>10485.0</v>
+      </c>
+      <c r="AJ144"/>
     </row>
     <row r="145">
       <c r="A145" t="s" s="7">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B145" t="n" s="10">
         <v>8.9</v>
@@ -15352,10 +16780,20 @@
       <c r="AF145" t="n" s="10">
         <v>8.5</v>
       </c>
+      <c r="AG145" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH145" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AI145" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AJ145"/>
     </row>
     <row r="146">
       <c r="A146" t="s" s="7">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B146" t="n" s="8">
         <v>471.0</v>
@@ -15450,10 +16888,20 @@
       <c r="AF146" t="n" s="8">
         <v>422.0</v>
       </c>
+      <c r="AG146" t="n" s="8">
+        <v>283.0</v>
+      </c>
+      <c r="AH146" t="n" s="8">
+        <v>278.0</v>
+      </c>
+      <c r="AI146" t="n" s="8">
+        <v>276.0</v>
+      </c>
+      <c r="AJ146"/>
     </row>
     <row r="147">
       <c r="A147" t="s" s="7">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B147" t="n" s="8">
         <v>4824.0</v>
@@ -15548,10 +16996,20 @@
       <c r="AF147" t="n" s="8">
         <v>4530.0</v>
       </c>
+      <c r="AG147" t="n" s="8">
+        <v>4458.0</v>
+      </c>
+      <c r="AH147" t="n" s="8">
+        <v>4486.0</v>
+      </c>
+      <c r="AI147" t="n" s="8">
+        <v>4650.0</v>
+      </c>
+      <c r="AJ147"/>
     </row>
     <row r="148">
       <c r="A148" t="s" s="7">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B148" t="n" s="8">
         <v>5295.0</v>
@@ -15646,10 +17104,20 @@
       <c r="AF148" t="n" s="8">
         <v>4952.0</v>
       </c>
+      <c r="AG148" t="n" s="8">
+        <v>4741.0</v>
+      </c>
+      <c r="AH148" t="n" s="8">
+        <v>4764.0</v>
+      </c>
+      <c r="AI148" t="n" s="8">
+        <v>4926.0</v>
+      </c>
+      <c r="AJ148"/>
     </row>
     <row r="149">
       <c r="A149" t="s" s="7">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B149" t="n" s="10">
         <v>6.1</v>
@@ -15744,10 +17212,20 @@
       <c r="AF149" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG149" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH149" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI149" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AJ149"/>
     </row>
     <row r="150">
       <c r="A150" t="s" s="7">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B150" t="n" s="8">
         <v>1593.0</v>
@@ -15842,10 +17320,20 @@
       <c r="AF150" t="n" s="8">
         <v>2871.0</v>
       </c>
+      <c r="AG150" t="n" s="8">
+        <v>1648.0</v>
+      </c>
+      <c r="AH150" t="n" s="8">
+        <v>1513.0</v>
+      </c>
+      <c r="AI150" t="n" s="8">
+        <v>1466.0</v>
+      </c>
+      <c r="AJ150"/>
     </row>
     <row r="151">
       <c r="A151" t="s" s="7">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B151" t="n" s="8">
         <v>24355.0</v>
@@ -15940,10 +17428,20 @@
       <c r="AF151" t="n" s="8">
         <v>30253.0</v>
       </c>
+      <c r="AG151" t="n" s="8">
+        <v>30175.0</v>
+      </c>
+      <c r="AH151" t="n" s="8">
+        <v>30860.0</v>
+      </c>
+      <c r="AI151" t="n" s="8">
+        <v>31000.0</v>
+      </c>
+      <c r="AJ151"/>
     </row>
     <row r="152">
       <c r="A152" t="s" s="7">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B152" t="n" s="8">
         <v>25948.0</v>
@@ -16038,10 +17536,20 @@
       <c r="AF152" t="n" s="8">
         <v>33124.0</v>
       </c>
+      <c r="AG152" t="n" s="8">
+        <v>31823.0</v>
+      </c>
+      <c r="AH152" t="n" s="8">
+        <v>32373.0</v>
+      </c>
+      <c r="AI152" t="n" s="8">
+        <v>32466.0</v>
+      </c>
+      <c r="AJ152"/>
     </row>
     <row r="153">
       <c r="A153" t="s" s="7">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B153" t="n" s="10">
         <v>7.1</v>
@@ -16136,10 +17644,20 @@
       <c r="AF153" t="n" s="10">
         <v>9.3</v>
       </c>
+      <c r="AG153" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH153" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI153" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ153"/>
     </row>
     <row r="154">
       <c r="A154" t="s" s="7">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B154" t="n" s="8">
         <v>5101.0</v>
@@ -16234,10 +17752,20 @@
       <c r="AF154" t="n" s="8">
         <v>6937.0</v>
       </c>
+      <c r="AG154" t="n" s="8">
+        <v>4034.0</v>
+      </c>
+      <c r="AH154" t="n" s="8">
+        <v>3230.0</v>
+      </c>
+      <c r="AI154" t="n" s="8">
+        <v>3029.0</v>
+      </c>
+      <c r="AJ154"/>
     </row>
     <row r="155">
       <c r="A155" t="s" s="7">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B155" t="n" s="8">
         <v>66353.0</v>
@@ -16332,10 +17860,20 @@
       <c r="AF155" t="n" s="8">
         <v>67782.0</v>
       </c>
+      <c r="AG155" t="n" s="8">
+        <v>67846.0</v>
+      </c>
+      <c r="AH155" t="n" s="8">
+        <v>70758.0</v>
+      </c>
+      <c r="AI155" t="n" s="8">
+        <v>72215.0</v>
+      </c>
+      <c r="AJ155"/>
     </row>
     <row r="156">
       <c r="A156" t="s" s="7">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B156" t="n" s="8">
         <v>71454.0</v>
@@ -16430,10 +17968,20 @@
       <c r="AF156" t="n" s="8">
         <v>74719.0</v>
       </c>
+      <c r="AG156" t="n" s="8">
+        <v>71880.0</v>
+      </c>
+      <c r="AH156" t="n" s="8">
+        <v>73988.0</v>
+      </c>
+      <c r="AI156" t="n" s="8">
+        <v>75244.0</v>
+      </c>
+      <c r="AJ156"/>
     </row>
     <row r="157">
       <c r="A157" t="s" s="7">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B157" t="n" s="10">
         <v>5.2</v>
@@ -16528,10 +18076,20 @@
       <c r="AF157" t="n" s="10">
         <v>7.6</v>
       </c>
+      <c r="AG157" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AH157" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AI157" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AJ157"/>
     </row>
     <row r="158">
       <c r="A158" t="s" s="7">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B158" t="n" s="8">
         <v>6295.0</v>
@@ -16626,10 +18184,20 @@
       <c r="AF158" t="n" s="8">
         <v>10008.0</v>
       </c>
+      <c r="AG158" t="n" s="8">
+        <v>6324.0</v>
+      </c>
+      <c r="AH158" t="n" s="8">
+        <v>5077.0</v>
+      </c>
+      <c r="AI158" t="n" s="8">
+        <v>4978.0</v>
+      </c>
+      <c r="AJ158"/>
     </row>
     <row r="159">
       <c r="A159" t="s" s="7">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B159" t="n" s="8">
         <v>113879.0</v>
@@ -16724,10 +18292,20 @@
       <c r="AF159" t="n" s="8">
         <v>122381.0</v>
       </c>
+      <c r="AG159" t="n" s="8">
+        <v>121963.0</v>
+      </c>
+      <c r="AH159" t="n" s="8">
+        <v>127053.0</v>
+      </c>
+      <c r="AI159" t="n" s="8">
+        <v>130403.0</v>
+      </c>
+      <c r="AJ159"/>
     </row>
     <row r="160">
       <c r="A160" t="s" s="7">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B160" t="n" s="8">
         <v>120174.0</v>
@@ -16822,10 +18400,20 @@
       <c r="AF160" t="n" s="8">
         <v>132389.0</v>
       </c>
+      <c r="AG160" t="n" s="8">
+        <v>128287.0</v>
+      </c>
+      <c r="AH160" t="n" s="8">
+        <v>132130.0</v>
+      </c>
+      <c r="AI160" t="n" s="8">
+        <v>135381.0</v>
+      </c>
+      <c r="AJ160"/>
     </row>
     <row r="161">
       <c r="A161" t="s" s="7">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B161" t="n" s="10">
         <v>9.8</v>
@@ -16920,10 +18508,20 @@
       <c r="AF161" t="n" s="10">
         <v>11.5</v>
       </c>
+      <c r="AG161" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="AH161" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AI161" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AJ161"/>
     </row>
     <row r="162">
       <c r="A162" t="s" s="7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B162" t="n" s="8">
         <v>604.0</v>
@@ -17018,10 +18616,20 @@
       <c r="AF162" t="n" s="8">
         <v>909.0</v>
       </c>
+      <c r="AG162" t="n" s="8">
+        <v>537.0</v>
+      </c>
+      <c r="AH162" t="n" s="8">
+        <v>460.0</v>
+      </c>
+      <c r="AI162" t="n" s="8">
+        <v>455.0</v>
+      </c>
+      <c r="AJ162"/>
     </row>
     <row r="163">
       <c r="A163" t="s" s="7">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B163" t="n" s="8">
         <v>5538.0</v>
@@ -17116,10 +18724,20 @@
       <c r="AF163" t="n" s="8">
         <v>6993.0</v>
       </c>
+      <c r="AG163" t="n" s="8">
+        <v>7109.0</v>
+      </c>
+      <c r="AH163" t="n" s="8">
+        <v>7449.0</v>
+      </c>
+      <c r="AI163" t="n" s="8">
+        <v>7729.0</v>
+      </c>
+      <c r="AJ163"/>
     </row>
     <row r="164">
       <c r="A164" t="s" s="7">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B164" t="n" s="8">
         <v>6142.0</v>
@@ -17214,10 +18832,20 @@
       <c r="AF164" t="n" s="8">
         <v>7902.0</v>
       </c>
+      <c r="AG164" t="n" s="8">
+        <v>7646.0</v>
+      </c>
+      <c r="AH164" t="n" s="8">
+        <v>7909.0</v>
+      </c>
+      <c r="AI164" t="n" s="8">
+        <v>8184.0</v>
+      </c>
+      <c r="AJ164"/>
     </row>
     <row r="165">
       <c r="A165" t="s" s="7">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B165" t="n" s="10">
         <v>5.6</v>
@@ -17312,10 +18940,20 @@
       <c r="AF165" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG165" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH165" t="n" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="AI165" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AJ165"/>
     </row>
     <row r="166">
       <c r="A166" t="s" s="7">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B166" t="n" s="8">
         <v>15239.0</v>
@@ -17410,10 +19048,20 @@
       <c r="AF166" t="n" s="8">
         <v>28343.0</v>
       </c>
+      <c r="AG166" t="n" s="8">
+        <v>16093.0</v>
+      </c>
+      <c r="AH166" t="n" s="8">
+        <v>12284.0</v>
+      </c>
+      <c r="AI166" t="n" s="8">
+        <v>11922.0</v>
+      </c>
+      <c r="AJ166"/>
     </row>
     <row r="167">
       <c r="A167" t="s" s="7">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B167" t="n" s="8">
         <v>254860.0</v>
@@ -17508,10 +19156,20 @@
       <c r="AF167" t="n" s="8">
         <v>329277.0</v>
       </c>
+      <c r="AG167" t="n" s="8">
+        <v>333345.0</v>
+      </c>
+      <c r="AH167" t="n" s="8">
+        <v>350035.0</v>
+      </c>
+      <c r="AI167" t="n" s="8">
+        <v>362728.0</v>
+      </c>
+      <c r="AJ167"/>
     </row>
     <row r="168">
       <c r="A168" t="s" s="7">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B168" t="n" s="8">
         <v>270099.0</v>
@@ -17606,10 +19264,20 @@
       <c r="AF168" t="n" s="8">
         <v>357620.0</v>
       </c>
+      <c r="AG168" t="n" s="8">
+        <v>349438.0</v>
+      </c>
+      <c r="AH168" t="n" s="8">
+        <v>362319.0</v>
+      </c>
+      <c r="AI168" t="n" s="8">
+        <v>374650.0</v>
+      </c>
+      <c r="AJ168"/>
     </row>
     <row r="169">
       <c r="A169" t="s" s="7">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B169" t="n" s="10">
         <v>14.7</v>
@@ -17704,10 +19372,20 @@
       <c r="AF169" t="n" s="10">
         <v>9.1</v>
       </c>
+      <c r="AG169" t="n" s="10">
+        <v>6.5</v>
+      </c>
+      <c r="AH169" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AI169" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AJ169"/>
     </row>
     <row r="170">
       <c r="A170" t="s" s="7">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B170" t="n" s="8">
         <v>89.0</v>
@@ -17802,10 +19480,20 @@
       <c r="AF170" t="n" s="8">
         <v>82.0</v>
       </c>
+      <c r="AG170" t="n" s="8">
+        <v>58.0</v>
+      </c>
+      <c r="AH170" t="n" s="8">
+        <v>54.0</v>
+      </c>
+      <c r="AI170" t="n" s="8">
+        <v>57.0</v>
+      </c>
+      <c r="AJ170"/>
     </row>
     <row r="171">
       <c r="A171" t="s" s="7">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B171" t="n" s="8">
         <v>516.0</v>
@@ -17900,10 +19588,20 @@
       <c r="AF171" t="n" s="8">
         <v>816.0</v>
       </c>
+      <c r="AG171" t="n" s="8">
+        <v>831.0</v>
+      </c>
+      <c r="AH171" t="n" s="8">
+        <v>851.0</v>
+      </c>
+      <c r="AI171" t="n" s="8">
+        <v>901.0</v>
+      </c>
+      <c r="AJ171"/>
     </row>
     <row r="172">
       <c r="A172" t="s" s="7">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B172" t="n" s="8">
         <v>605.0</v>
@@ -17998,10 +19696,20 @@
       <c r="AF172" t="n" s="8">
         <v>898.0</v>
       </c>
+      <c r="AG172" t="n" s="8">
+        <v>889.0</v>
+      </c>
+      <c r="AH172" t="n" s="8">
+        <v>905.0</v>
+      </c>
+      <c r="AI172" t="n" s="8">
+        <v>958.0</v>
+      </c>
+      <c r="AJ172"/>
     </row>
     <row r="173">
       <c r="A173" t="s" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B173" t="n" s="10">
         <v>12.0</v>
@@ -18096,10 +19804,20 @@
       <c r="AF173" t="n" s="10">
         <v>11.2</v>
       </c>
+      <c r="AG173" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="AH173" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="AI173" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="AJ173"/>
     </row>
     <row r="174">
       <c r="A174" t="s" s="7">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B174" t="n" s="8">
         <v>327.0</v>
@@ -18194,10 +19912,20 @@
       <c r="AF174" t="n" s="8">
         <v>445.0</v>
       </c>
+      <c r="AG174" t="n" s="8">
+        <v>306.0</v>
+      </c>
+      <c r="AH174" t="n" s="8">
+        <v>267.0</v>
+      </c>
+      <c r="AI174" t="n" s="8">
+        <v>278.0</v>
+      </c>
+      <c r="AJ174"/>
     </row>
     <row r="175">
       <c r="A175" t="s" s="7">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B175" t="n" s="8">
         <v>2404.0</v>
@@ -18292,10 +20020,20 @@
       <c r="AF175" t="n" s="8">
         <v>3528.0</v>
       </c>
+      <c r="AG175" t="n" s="8">
+        <v>3524.0</v>
+      </c>
+      <c r="AH175" t="n" s="8">
+        <v>3562.0</v>
+      </c>
+      <c r="AI175" t="n" s="8">
+        <v>3683.0</v>
+      </c>
+      <c r="AJ175"/>
     </row>
     <row r="176">
       <c r="A176" t="s" s="7">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B176" t="n" s="8">
         <v>2731.0</v>
@@ -18390,10 +20128,20 @@
       <c r="AF176" t="n" s="8">
         <v>3973.0</v>
       </c>
+      <c r="AG176" t="n" s="8">
+        <v>3830.0</v>
+      </c>
+      <c r="AH176" t="n" s="8">
+        <v>3829.0</v>
+      </c>
+      <c r="AI176" t="n" s="8">
+        <v>3961.0</v>
+      </c>
+      <c r="AJ176"/>
     </row>
     <row r="177">
       <c r="A177" t="s" s="7">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B177" t="n" s="10">
         <v>10.1</v>
@@ -18488,10 +20236,20 @@
       <c r="AF177" t="n" s="10">
         <v>12.2</v>
       </c>
+      <c r="AG177" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH177" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AI177" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AJ177"/>
     </row>
     <row r="178">
       <c r="A178" t="s" s="7">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B178" t="n" s="8">
         <v>3799.0</v>
@@ -18586,10 +20344,20 @@
       <c r="AF178" t="n" s="8">
         <v>4934.0</v>
       </c>
+      <c r="AG178" t="n" s="8">
+        <v>2397.0</v>
+      </c>
+      <c r="AH178" t="n" s="8">
+        <v>1743.0</v>
+      </c>
+      <c r="AI178" t="n" s="8">
+        <v>1713.0</v>
+      </c>
+      <c r="AJ178"/>
     </row>
     <row r="179">
       <c r="A179" t="s" s="7">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B179" t="n" s="8">
         <v>33643.0</v>
@@ -18684,10 +20452,20 @@
       <c r="AF179" t="n" s="8">
         <v>35581.0</v>
       </c>
+      <c r="AG179" t="n" s="8">
+        <v>37715.0</v>
+      </c>
+      <c r="AH179" t="n" s="8">
+        <v>38693.0</v>
+      </c>
+      <c r="AI179" t="n" s="8">
+        <v>39977.0</v>
+      </c>
+      <c r="AJ179"/>
     </row>
     <row r="180">
       <c r="A180" t="s" s="7">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B180" t="n" s="8">
         <v>37442.0</v>
@@ -18782,10 +20560,20 @@
       <c r="AF180" t="n" s="8">
         <v>40515.0</v>
       </c>
+      <c r="AG180" t="n" s="8">
+        <v>40112.0</v>
+      </c>
+      <c r="AH180" t="n" s="8">
+        <v>40436.0</v>
+      </c>
+      <c r="AI180" t="n" s="8">
+        <v>41690.0</v>
+      </c>
+      <c r="AJ180"/>
     </row>
     <row r="181">
       <c r="A181" t="s" s="7">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B181" t="n" s="10">
         <v>6.3</v>
@@ -18880,10 +20668,20 @@
       <c r="AF181" t="n" s="10">
         <v>8.2</v>
       </c>
+      <c r="AG181" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AH181" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI181" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ181"/>
     </row>
     <row r="182">
       <c r="A182" t="s" s="7">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B182" t="n" s="8">
         <v>549.0</v>
@@ -18978,10 +20776,20 @@
       <c r="AF182" t="n" s="8">
         <v>844.0</v>
       </c>
+      <c r="AG182" t="n" s="8">
+        <v>510.0</v>
+      </c>
+      <c r="AH182" t="n" s="8">
+        <v>430.0</v>
+      </c>
+      <c r="AI182" t="n" s="8">
+        <v>406.0</v>
+      </c>
+      <c r="AJ182"/>
     </row>
     <row r="183">
       <c r="A183" t="s" s="7">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B183" t="n" s="8">
         <v>8224.0</v>
@@ -19076,10 +20884,20 @@
       <c r="AF183" t="n" s="8">
         <v>9413.0</v>
       </c>
+      <c r="AG183" t="n" s="8">
+        <v>9564.0</v>
+      </c>
+      <c r="AH183" t="n" s="8">
+        <v>9935.0</v>
+      </c>
+      <c r="AI183" t="n" s="8">
+        <v>10341.0</v>
+      </c>
+      <c r="AJ183"/>
     </row>
     <row r="184">
       <c r="A184" t="s" s="7">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B184" t="n" s="8">
         <v>8773.0</v>
@@ -19174,10 +20992,20 @@
       <c r="AF184" t="n" s="8">
         <v>10257.0</v>
       </c>
+      <c r="AG184" t="n" s="8">
+        <v>10074.0</v>
+      </c>
+      <c r="AH184" t="n" s="8">
+        <v>10365.0</v>
+      </c>
+      <c r="AI184" t="n" s="8">
+        <v>10747.0</v>
+      </c>
+      <c r="AJ184"/>
     </row>
     <row r="185">
       <c r="A185" t="s" s="7">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B185" t="n" s="10">
         <v>7.5</v>
@@ -19272,10 +21100,20 @@
       <c r="AF185" t="n" s="10">
         <v>9.2</v>
       </c>
+      <c r="AG185" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH185" t="n" s="10">
+        <v>4.5</v>
+      </c>
+      <c r="AI185" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ185"/>
     </row>
     <row r="186">
       <c r="A186" t="s" s="7">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B186" t="n" s="8">
         <v>3310.0</v>
@@ -19370,10 +21208,20 @@
       <c r="AF186" t="n" s="8">
         <v>4224.0</v>
       </c>
+      <c r="AG186" t="n" s="8">
+        <v>2394.0</v>
+      </c>
+      <c r="AH186" t="n" s="8">
+        <v>2046.0</v>
+      </c>
+      <c r="AI186" t="n" s="8">
+        <v>1934.0</v>
+      </c>
+      <c r="AJ186"/>
     </row>
     <row r="187">
       <c r="A187" t="s" s="7">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B187" t="n" s="8">
         <v>40548.0</v>
@@ -19468,10 +21316,20 @@
       <c r="AF187" t="n" s="8">
         <v>41555.0</v>
       </c>
+      <c r="AG187" t="n" s="8">
+        <v>42150.0</v>
+      </c>
+      <c r="AH187" t="n" s="8">
+        <v>43133.0</v>
+      </c>
+      <c r="AI187" t="n" s="8">
+        <v>44324.0</v>
+      </c>
+      <c r="AJ187"/>
     </row>
     <row r="188">
       <c r="A188" t="s" s="7">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B188" t="n" s="8">
         <v>43858.0</v>
@@ -19566,10 +21424,20 @@
       <c r="AF188" t="n" s="8">
         <v>45779.0</v>
       </c>
+      <c r="AG188" t="n" s="8">
+        <v>44544.0</v>
+      </c>
+      <c r="AH188" t="n" s="8">
+        <v>45179.0</v>
+      </c>
+      <c r="AI188" t="n" s="8">
+        <v>46258.0</v>
+      </c>
+      <c r="AJ188"/>
     </row>
     <row r="189">
       <c r="A189" t="s" s="7">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B189" t="n" s="10">
         <v>5.7</v>
@@ -19664,10 +21532,20 @@
       <c r="AF189" t="n" s="10">
         <v>8.6</v>
       </c>
+      <c r="AG189" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AH189" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AI189" t="n" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="AJ189"/>
     </row>
     <row r="190">
       <c r="A190" t="s" s="7">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B190" t="n" s="8">
         <v>3507.0</v>
@@ -19762,10 +21640,20 @@
       <c r="AF190" t="n" s="8">
         <v>8697.0</v>
       </c>
+      <c r="AG190" t="n" s="8">
+        <v>4210.0</v>
+      </c>
+      <c r="AH190" t="n" s="8">
+        <v>2966.0</v>
+      </c>
+      <c r="AI190" t="n" s="8">
+        <v>2907.0</v>
+      </c>
+      <c r="AJ190"/>
     </row>
     <row r="191">
       <c r="A191" t="s" s="7">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B191" t="n" s="8">
         <v>58167.0</v>
@@ -19860,10 +21748,20 @@
       <c r="AF191" t="n" s="8">
         <v>92130.0</v>
       </c>
+      <c r="AG191" t="n" s="8">
+        <v>97651.0</v>
+      </c>
+      <c r="AH191" t="n" s="8">
+        <v>100456.0</v>
+      </c>
+      <c r="AI191" t="n" s="8">
+        <v>103521.0</v>
+      </c>
+      <c r="AJ191"/>
     </row>
     <row r="192">
       <c r="A192" t="s" s="7">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B192" t="n" s="8">
         <v>61674.0</v>
@@ -19958,10 +21856,20 @@
       <c r="AF192" t="n" s="8">
         <v>100827.0</v>
       </c>
+      <c r="AG192" t="n" s="8">
+        <v>101861.0</v>
+      </c>
+      <c r="AH192" t="n" s="8">
+        <v>103422.0</v>
+      </c>
+      <c r="AI192" t="n" s="8">
+        <v>106428.0</v>
+      </c>
+      <c r="AJ192"/>
     </row>
     <row r="193">
       <c r="A193" t="s" s="7">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B193" t="n" s="10">
         <v>9.1</v>
@@ -20056,10 +21964,20 @@
       <c r="AF193" t="n" s="10">
         <v>9.0</v>
       </c>
+      <c r="AG193" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AH193" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AI193" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AJ193"/>
     </row>
     <row r="194">
       <c r="A194" t="s" s="7">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B194" t="n" s="8">
         <v>221.0</v>
@@ -20154,10 +22072,20 @@
       <c r="AF194" t="n" s="8">
         <v>201.0</v>
       </c>
+      <c r="AG194" t="n" s="8">
+        <v>146.0</v>
+      </c>
+      <c r="AH194" t="n" s="8">
+        <v>129.0</v>
+      </c>
+      <c r="AI194" t="n" s="8">
+        <v>133.0</v>
+      </c>
+      <c r="AJ194"/>
     </row>
     <row r="195">
       <c r="A195" t="s" s="7">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B195" t="n" s="8">
         <v>2199.0</v>
@@ -20252,10 +22180,20 @@
       <c r="AF195" t="n" s="8">
         <v>2033.0</v>
       </c>
+      <c r="AG195" t="n" s="8">
+        <v>1991.0</v>
+      </c>
+      <c r="AH195" t="n" s="8">
+        <v>2013.0</v>
+      </c>
+      <c r="AI195" t="n" s="8">
+        <v>2123.0</v>
+      </c>
+      <c r="AJ195"/>
     </row>
     <row r="196">
       <c r="A196" t="s" s="7">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B196" t="n" s="8">
         <v>2420.0</v>
@@ -20350,10 +22288,20 @@
       <c r="AF196" t="n" s="8">
         <v>2234.0</v>
       </c>
+      <c r="AG196" t="n" s="8">
+        <v>2137.0</v>
+      </c>
+      <c r="AH196" t="n" s="8">
+        <v>2142.0</v>
+      </c>
+      <c r="AI196" t="n" s="8">
+        <v>2256.0</v>
+      </c>
+      <c r="AJ196"/>
     </row>
     <row r="197">
       <c r="A197" t="s" s="7">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B197" t="n" s="10">
         <v>14.2</v>
@@ -20448,10 +22396,20 @@
       <c r="AF197" t="n" s="10">
         <v>13.6</v>
       </c>
+      <c r="AG197" t="n" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="AH197" t="n" s="10">
+        <v>8.8</v>
+      </c>
+      <c r="AI197" t="n" s="10">
+        <v>8.9</v>
+      </c>
+      <c r="AJ197"/>
     </row>
     <row r="198">
       <c r="A198" t="s" s="7">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B198" t="n" s="8">
         <v>884.0</v>
@@ -20546,10 +22504,20 @@
       <c r="AF198" t="n" s="8">
         <v>675.0</v>
       </c>
+      <c r="AG198" t="n" s="8">
+        <v>411.0</v>
+      </c>
+      <c r="AH198" t="n" s="8">
+        <v>454.0</v>
+      </c>
+      <c r="AI198" t="n" s="8">
+        <v>482.0</v>
+      </c>
+      <c r="AJ198"/>
     </row>
     <row r="199">
       <c r="A199" t="s" s="7">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B199" t="n" s="8">
         <v>5340.0</v>
@@ -20644,10 +22612,20 @@
       <c r="AF199" t="n" s="8">
         <v>4271.0</v>
       </c>
+      <c r="AG199" t="n" s="8">
+        <v>4440.0</v>
+      </c>
+      <c r="AH199" t="n" s="8">
+        <v>4704.0</v>
+      </c>
+      <c r="AI199" t="n" s="8">
+        <v>4910.0</v>
+      </c>
+      <c r="AJ199"/>
     </row>
     <row r="200">
       <c r="A200" t="s" s="7">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B200" t="n" s="8">
         <v>6224.0</v>
@@ -20742,10 +22720,20 @@
       <c r="AF200" t="n" s="8">
         <v>4946.0</v>
       </c>
+      <c r="AG200" t="n" s="8">
+        <v>4851.0</v>
+      </c>
+      <c r="AH200" t="n" s="8">
+        <v>5158.0</v>
+      </c>
+      <c r="AI200" t="n" s="8">
+        <v>5392.0</v>
+      </c>
+      <c r="AJ200"/>
     </row>
     <row r="201">
       <c r="A201" t="s" s="7">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B201" t="n" s="10">
         <v>7.7</v>
@@ -20840,10 +22828,20 @@
       <c r="AF201" t="n" s="10">
         <v>11.8</v>
       </c>
+      <c r="AG201" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH201" t="n" s="10">
+        <v>3.7</v>
+      </c>
+      <c r="AI201" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AJ201"/>
     </row>
     <row r="202">
       <c r="A202" t="s" s="7">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B202" t="n" s="8">
         <v>30419.0</v>
@@ -20938,10 +22936,20 @@
       <c r="AF202" t="n" s="8">
         <v>52085.0</v>
       </c>
+      <c r="AG202" t="n" s="8">
+        <v>25553.0</v>
+      </c>
+      <c r="AH202" t="n" s="8">
+        <v>16511.0</v>
+      </c>
+      <c r="AI202" t="n" s="8">
+        <v>16003.0</v>
+      </c>
+      <c r="AJ202"/>
     </row>
     <row r="203">
       <c r="A203" t="s" s="7">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B203" t="n" s="8">
         <v>362106.0</v>
@@ -21036,10 +23044,20 @@
       <c r="AF203" t="n" s="8">
         <v>390375.0</v>
       </c>
+      <c r="AG203" t="n" s="8">
+        <v>413835.0</v>
+      </c>
+      <c r="AH203" t="n" s="8">
+        <v>426693.0</v>
+      </c>
+      <c r="AI203" t="n" s="8">
+        <v>439505.0</v>
+      </c>
+      <c r="AJ203"/>
     </row>
     <row r="204">
       <c r="A204" t="s" s="7">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B204" t="n" s="8">
         <v>392525.0</v>
@@ -21134,10 +23152,20 @@
       <c r="AF204" t="n" s="8">
         <v>442460.0</v>
       </c>
+      <c r="AG204" t="n" s="8">
+        <v>439388.0</v>
+      </c>
+      <c r="AH204" t="n" s="8">
+        <v>443204.0</v>
+      </c>
+      <c r="AI204" t="n" s="8">
+        <v>455508.0</v>
+      </c>
+      <c r="AJ204"/>
     </row>
     <row r="205">
       <c r="A205" t="s" s="7">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B205" t="n" s="10">
         <v>10.7</v>
@@ -21232,10 +23260,20 @@
       <c r="AF205" t="n" s="10">
         <v>11.3</v>
       </c>
+      <c r="AG205" t="n" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="AH205" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AI205" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AJ205"/>
     </row>
     <row r="206">
       <c r="A206" t="s" s="7">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B206" t="n" s="8">
         <v>1001.0</v>
@@ -21330,10 +23368,20 @@
       <c r="AF206" t="n" s="8">
         <v>1149.0</v>
       </c>
+      <c r="AG206" t="n" s="8">
+        <v>688.0</v>
+      </c>
+      <c r="AH206" t="n" s="8">
+        <v>566.0</v>
+      </c>
+      <c r="AI206" t="n" s="8">
+        <v>570.0</v>
+      </c>
+      <c r="AJ206"/>
     </row>
     <row r="207">
       <c r="A207" t="s" s="7">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B207" t="n" s="8">
         <v>8394.0</v>
@@ -21428,10 +23476,20 @@
       <c r="AF207" t="n" s="8">
         <v>9062.0</v>
       </c>
+      <c r="AG207" t="n" s="8">
+        <v>8996.0</v>
+      </c>
+      <c r="AH207" t="n" s="8">
+        <v>9126.0</v>
+      </c>
+      <c r="AI207" t="n" s="8">
+        <v>9369.0</v>
+      </c>
+      <c r="AJ207"/>
     </row>
     <row r="208">
       <c r="A208" t="s" s="7">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B208" t="n" s="8">
         <v>9395.0</v>
@@ -21526,10 +23584,20 @@
       <c r="AF208" t="n" s="8">
         <v>10211.0</v>
       </c>
+      <c r="AG208" t="n" s="8">
+        <v>9684.0</v>
+      </c>
+      <c r="AH208" t="n" s="8">
+        <v>9692.0</v>
+      </c>
+      <c r="AI208" t="n" s="8">
+        <v>9939.0</v>
+      </c>
+      <c r="AJ208"/>
     </row>
     <row r="209">
       <c r="A209" t="s" s="7">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B209" t="n" s="10">
         <v>8.0</v>
@@ -21624,10 +23692,20 @@
       <c r="AF209" t="n" s="10">
         <v>8.6</v>
       </c>
+      <c r="AG209" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AH209" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI209" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AJ209"/>
     </row>
     <row r="210">
       <c r="A210" t="s" s="7">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B210" t="n" s="8">
         <v>2583.0</v>
@@ -21722,10 +23800,20 @@
       <c r="AF210" t="n" s="8">
         <v>2731.0</v>
       </c>
+      <c r="AG210" t="n" s="8">
+        <v>1613.0</v>
+      </c>
+      <c r="AH210" t="n" s="8">
+        <v>1549.0</v>
+      </c>
+      <c r="AI210" t="n" s="8">
+        <v>1517.0</v>
+      </c>
+      <c r="AJ210"/>
     </row>
     <row r="211">
       <c r="A211" t="s" s="7">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B211" t="n" s="8">
         <v>29534.0</v>
@@ -21820,10 +23908,20 @@
       <c r="AF211" t="n" s="8">
         <v>29064.0</v>
       </c>
+      <c r="AG211" t="n" s="8">
+        <v>29318.0</v>
+      </c>
+      <c r="AH211" t="n" s="8">
+        <v>30107.0</v>
+      </c>
+      <c r="AI211" t="n" s="8">
+        <v>31323.0</v>
+      </c>
+      <c r="AJ211"/>
     </row>
     <row r="212">
       <c r="A212" t="s" s="7">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B212" t="n" s="8">
         <v>32117.0</v>
@@ -21918,10 +24016,20 @@
       <c r="AF212" t="n" s="8">
         <v>31795.0</v>
       </c>
+      <c r="AG212" t="n" s="8">
+        <v>30931.0</v>
+      </c>
+      <c r="AH212" t="n" s="8">
+        <v>31656.0</v>
+      </c>
+      <c r="AI212" t="n" s="8">
+        <v>32840.0</v>
+      </c>
+      <c r="AJ212"/>
     </row>
     <row r="213">
       <c r="A213" t="s" s="7">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B213" t="n" s="10">
         <v>8.3</v>
@@ -22016,10 +24124,20 @@
       <c r="AF213" t="n" s="10">
         <v>9.6</v>
       </c>
+      <c r="AG213" t="n" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="AH213" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AI213" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AJ213"/>
     </row>
     <row r="214">
       <c r="A214" t="s" s="7">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B214" t="n" s="8">
         <v>1015.0</v>
@@ -22114,10 +24232,20 @@
       <c r="AF214" t="n" s="8">
         <v>1284.0</v>
       </c>
+      <c r="AG214" t="n" s="8">
+        <v>816.0</v>
+      </c>
+      <c r="AH214" t="n" s="8">
+        <v>683.0</v>
+      </c>
+      <c r="AI214" t="n" s="8">
+        <v>661.0</v>
+      </c>
+      <c r="AJ214"/>
     </row>
     <row r="215">
       <c r="A215" t="s" s="7">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B215" t="n" s="8">
         <v>11178.0</v>
@@ -22212,10 +24340,20 @@
       <c r="AF215" t="n" s="8">
         <v>12051.0</v>
       </c>
+      <c r="AG215" t="n" s="8">
+        <v>12205.0</v>
+      </c>
+      <c r="AH215" t="n" s="8">
+        <v>12543.0</v>
+      </c>
+      <c r="AI215" t="n" s="8">
+        <v>12787.0</v>
+      </c>
+      <c r="AJ215"/>
     </row>
     <row r="216">
       <c r="A216" t="s" s="7">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B216" t="n" s="8">
         <v>12193.0</v>
@@ -22310,10 +24448,20 @@
       <c r="AF216" t="n" s="8">
         <v>13335.0</v>
       </c>
+      <c r="AG216" t="n" s="8">
+        <v>13021.0</v>
+      </c>
+      <c r="AH216" t="n" s="8">
+        <v>13226.0</v>
+      </c>
+      <c r="AI216" t="n" s="8">
+        <v>13448.0</v>
+      </c>
+      <c r="AJ216"/>
     </row>
     <row r="217">
       <c r="A217" t="s" s="7">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B217" t="n" s="10">
         <v>8.0</v>
@@ -22408,10 +24556,20 @@
       <c r="AF217" t="n" s="10">
         <v>9.5</v>
       </c>
+      <c r="AG217" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH217" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AI217" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AJ217"/>
     </row>
     <row r="218">
       <c r="A218" t="s" s="7">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B218" t="n" s="8">
         <v>1323.0</v>
@@ -22506,10 +24664,20 @@
       <c r="AF218" t="n" s="8">
         <v>1746.0</v>
       </c>
+      <c r="AG218" t="n" s="8">
+        <v>1108.0</v>
+      </c>
+      <c r="AH218" t="n" s="8">
+        <v>987.0</v>
+      </c>
+      <c r="AI218" t="n" s="8">
+        <v>1011.0</v>
+      </c>
+      <c r="AJ218"/>
     </row>
     <row r="219">
       <c r="A219" t="s" s="7">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B219" t="n" s="8">
         <v>15137.0</v>
@@ -22604,10 +24772,20 @@
       <c r="AF219" t="n" s="8">
         <v>16645.0</v>
       </c>
+      <c r="AG219" t="n" s="8">
+        <v>16714.0</v>
+      </c>
+      <c r="AH219" t="n" s="8">
+        <v>17190.0</v>
+      </c>
+      <c r="AI219" t="n" s="8">
+        <v>17952.0</v>
+      </c>
+      <c r="AJ219"/>
     </row>
     <row r="220">
       <c r="A220" t="s" s="7">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B220" t="n" s="8">
         <v>16460.0</v>
@@ -22702,10 +24880,20 @@
       <c r="AF220" t="n" s="8">
         <v>18391.0</v>
       </c>
+      <c r="AG220" t="n" s="8">
+        <v>17822.0</v>
+      </c>
+      <c r="AH220" t="n" s="8">
+        <v>18177.0</v>
+      </c>
+      <c r="AI220" t="n" s="8">
+        <v>18963.0</v>
+      </c>
+      <c r="AJ220"/>
     </row>
     <row r="221">
       <c r="A221" t="s" s="7">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B221" t="n" s="10">
         <v>6.8</v>
@@ -22800,10 +24988,20 @@
       <c r="AF221" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG221" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AH221" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI221" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ221"/>
     </row>
     <row r="222">
       <c r="A222" t="s" s="7">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B222" t="n" s="8">
         <v>824.0</v>
@@ -22898,10 +25096,20 @@
       <c r="AF222" t="n" s="8">
         <v>717.0</v>
       </c>
+      <c r="AG222" t="n" s="8">
+        <v>466.0</v>
+      </c>
+      <c r="AH222" t="n" s="8">
+        <v>445.0</v>
+      </c>
+      <c r="AI222" t="n" s="8">
+        <v>433.0</v>
+      </c>
+      <c r="AJ222"/>
     </row>
     <row r="223">
       <c r="A223" t="s" s="7">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B223" t="n" s="8">
         <v>11206.0</v>
@@ -22996,10 +25204,20 @@
       <c r="AF223" t="n" s="8">
         <v>9971.0</v>
       </c>
+      <c r="AG223" t="n" s="8">
+        <v>10032.0</v>
+      </c>
+      <c r="AH223" t="n" s="8">
+        <v>10257.0</v>
+      </c>
+      <c r="AI223" t="n" s="8">
+        <v>10453.0</v>
+      </c>
+      <c r="AJ223"/>
     </row>
     <row r="224">
       <c r="A224" t="s" s="7">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B224" t="n" s="8">
         <v>12030.0</v>
@@ -23094,10 +25312,20 @@
       <c r="AF224" t="n" s="8">
         <v>10688.0</v>
       </c>
+      <c r="AG224" t="n" s="8">
+        <v>10498.0</v>
+      </c>
+      <c r="AH224" t="n" s="8">
+        <v>10702.0</v>
+      </c>
+      <c r="AI224" t="n" s="8">
+        <v>10886.0</v>
+      </c>
+      <c r="AJ224"/>
     </row>
     <row r="225">
       <c r="A225" t="s" s="7">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B225" t="n" s="10">
         <v>5.5</v>
@@ -23192,10 +25420,20 @@
       <c r="AF225" t="n" s="10">
         <v>7.9</v>
       </c>
+      <c r="AG225" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AH225" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AI225" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AJ225"/>
     </row>
     <row r="226">
       <c r="A226" t="s" s="7">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B226" t="n" s="8">
         <v>2081.0</v>
@@ -23290,10 +25528,20 @@
       <c r="AF226" t="n" s="8">
         <v>3095.0</v>
       </c>
+      <c r="AG226" t="n" s="8">
+        <v>1849.0</v>
+      </c>
+      <c r="AH226" t="n" s="8">
+        <v>1696.0</v>
+      </c>
+      <c r="AI226" t="n" s="8">
+        <v>1620.0</v>
+      </c>
+      <c r="AJ226"/>
     </row>
     <row r="227">
       <c r="A227" t="s" s="7">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B227" t="n" s="8">
         <v>35689.0</v>
@@ -23388,10 +25636,20 @@
       <c r="AF227" t="n" s="8">
         <v>36313.0</v>
       </c>
+      <c r="AG227" t="n" s="8">
+        <v>36723.0</v>
+      </c>
+      <c r="AH227" t="n" s="8">
+        <v>38455.0</v>
+      </c>
+      <c r="AI227" t="n" s="8">
+        <v>39192.0</v>
+      </c>
+      <c r="AJ227"/>
     </row>
     <row r="228">
       <c r="A228" t="s" s="7">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B228" t="n" s="8">
         <v>37770.0</v>
@@ -23486,10 +25744,20 @@
       <c r="AF228" t="n" s="8">
         <v>39408.0</v>
       </c>
+      <c r="AG228" t="n" s="8">
+        <v>38572.0</v>
+      </c>
+      <c r="AH228" t="n" s="8">
+        <v>40151.0</v>
+      </c>
+      <c r="AI228" t="n" s="8">
+        <v>40812.0</v>
+      </c>
+      <c r="AJ228"/>
     </row>
     <row r="229">
       <c r="A229" t="s" s="7">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B229" t="n" s="10">
         <v>10.5</v>
@@ -23584,10 +25852,20 @@
       <c r="AF229" t="n" s="10">
         <v>9.5</v>
       </c>
+      <c r="AG229" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH229" t="n" s="10">
+        <v>4.9</v>
+      </c>
+      <c r="AI229" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ229"/>
     </row>
     <row r="230">
       <c r="A230" t="s" s="7">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B230" t="n" s="8">
         <v>567.0</v>
@@ -23682,10 +25960,20 @@
       <c r="AF230" t="n" s="8">
         <v>656.0</v>
       </c>
+      <c r="AG230" t="n" s="8">
+        <v>370.0</v>
+      </c>
+      <c r="AH230" t="n" s="8">
+        <v>336.0</v>
+      </c>
+      <c r="AI230" t="n" s="8">
+        <v>340.0</v>
+      </c>
+      <c r="AJ230"/>
     </row>
     <row r="231">
       <c r="A231" t="s" s="7">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B231" t="n" s="8">
         <v>4817.0</v>
@@ -23780,10 +26068,20 @@
       <c r="AF231" t="n" s="8">
         <v>6275.0</v>
       </c>
+      <c r="AG231" t="n" s="8">
+        <v>6465.0</v>
+      </c>
+      <c r="AH231" t="n" s="8">
+        <v>6504.0</v>
+      </c>
+      <c r="AI231" t="n" s="8">
+        <v>6758.0</v>
+      </c>
+      <c r="AJ231"/>
     </row>
     <row r="232">
       <c r="A232" t="s" s="7">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B232" t="n" s="8">
         <v>5384.0</v>
@@ -23878,10 +26176,20 @@
       <c r="AF232" t="n" s="8">
         <v>6931.0</v>
       </c>
+      <c r="AG232" t="n" s="8">
+        <v>6835.0</v>
+      </c>
+      <c r="AH232" t="n" s="8">
+        <v>6840.0</v>
+      </c>
+      <c r="AI232" t="n" s="8">
+        <v>7098.0</v>
+      </c>
+      <c r="AJ232"/>
     </row>
     <row r="233">
       <c r="A233" t="s" s="7">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B233" t="n" s="10">
         <v>7.6</v>
@@ -23976,10 +26284,20 @@
       <c r="AF233" t="n" s="10">
         <v>9.2</v>
       </c>
+      <c r="AG233" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH233" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI233" t="n" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="AJ233"/>
     </row>
     <row r="234">
       <c r="A234" t="s" s="7">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B234" t="n" s="8">
         <v>5162.0</v>
@@ -24074,10 +26392,20 @@
       <c r="AF234" t="n" s="8">
         <v>6846.0</v>
       </c>
+      <c r="AG234" t="n" s="8">
+        <v>4274.0</v>
+      </c>
+      <c r="AH234" t="n" s="8">
+        <v>3516.0</v>
+      </c>
+      <c r="AI234" t="n" s="8">
+        <v>3250.0</v>
+      </c>
+      <c r="AJ234"/>
     </row>
     <row r="235">
       <c r="A235" t="s" s="7">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B235" t="n" s="8">
         <v>62547.0</v>
@@ -24172,10 +26500,20 @@
       <c r="AF235" t="n" s="8">
         <v>67687.0</v>
       </c>
+      <c r="AG235" t="n" s="8">
+        <v>67791.0</v>
+      </c>
+      <c r="AH235" t="n" s="8">
+        <v>71499.0</v>
+      </c>
+      <c r="AI235" t="n" s="8">
+        <v>74284.0</v>
+      </c>
+      <c r="AJ235"/>
     </row>
     <row r="236">
       <c r="A236" t="s" s="7">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B236" t="n" s="8">
         <v>67709.0</v>
@@ -24270,10 +26608,20 @@
       <c r="AF236" t="n" s="8">
         <v>74533.0</v>
       </c>
+      <c r="AG236" t="n" s="8">
+        <v>72065.0</v>
+      </c>
+      <c r="AH236" t="n" s="8">
+        <v>75015.0</v>
+      </c>
+      <c r="AI236" t="n" s="8">
+        <v>77534.0</v>
+      </c>
+      <c r="AJ236"/>
     </row>
     <row r="237">
       <c r="A237" t="s" s="7">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B237" t="n" s="10">
         <v>14.4</v>
@@ -24368,10 +26716,20 @@
       <c r="AF237" t="n" s="10">
         <v>9.5</v>
       </c>
+      <c r="AG237" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH237" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AI237" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ237"/>
     </row>
     <row r="238">
       <c r="A238" t="s" s="7">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B238" t="n" s="8">
         <v>3435.0</v>
@@ -24466,10 +26824,20 @@
       <c r="AF238" t="n" s="8">
         <v>2649.0</v>
       </c>
+      <c r="AG238" t="n" s="8">
+        <v>1484.0</v>
+      </c>
+      <c r="AH238" t="n" s="8">
+        <v>1229.0</v>
+      </c>
+      <c r="AI238" t="n" s="8">
+        <v>1241.0</v>
+      </c>
+      <c r="AJ238"/>
     </row>
     <row r="239">
       <c r="A239" t="s" s="7">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B239" t="n" s="8">
         <v>20352.0</v>
@@ -24564,10 +26932,20 @@
       <c r="AF239" t="n" s="8">
         <v>25295.0</v>
       </c>
+      <c r="AG239" t="n" s="8">
+        <v>25607.0</v>
+      </c>
+      <c r="AH239" t="n" s="8">
+        <v>26742.0</v>
+      </c>
+      <c r="AI239" t="n" s="8">
+        <v>27831.0</v>
+      </c>
+      <c r="AJ239"/>
     </row>
     <row r="240">
       <c r="A240" t="s" s="7">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B240" t="n" s="8">
         <v>23787.0</v>
@@ -24662,10 +27040,20 @@
       <c r="AF240" t="n" s="8">
         <v>27944.0</v>
       </c>
+      <c r="AG240" t="n" s="8">
+        <v>27091.0</v>
+      </c>
+      <c r="AH240" t="n" s="8">
+        <v>27971.0</v>
+      </c>
+      <c r="AI240" t="n" s="8">
+        <v>29072.0</v>
+      </c>
+      <c r="AJ240"/>
     </row>
     <row r="241">
       <c r="A241" t="s" s="7">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B241" t="n" s="10">
         <v>15.1</v>
@@ -24760,10 +27148,20 @@
       <c r="AF241" t="n" s="10">
         <v>13.7</v>
       </c>
+      <c r="AG241" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="AH241" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="AI241" t="n" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="AJ241"/>
     </row>
     <row r="242">
       <c r="A242" t="s" s="7">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B242" t="n" s="8">
         <v>491.0</v>
@@ -24858,10 +27256,20 @@
       <c r="AF242" t="n" s="8">
         <v>413.0</v>
       </c>
+      <c r="AG242" t="n" s="8">
+        <v>266.0</v>
+      </c>
+      <c r="AH242" t="n" s="8">
+        <v>241.0</v>
+      </c>
+      <c r="AI242" t="n" s="8">
+        <v>235.0</v>
+      </c>
+      <c r="AJ242"/>
     </row>
     <row r="243">
       <c r="A243" t="s" s="7">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B243" t="n" s="8">
         <v>2752.0</v>
@@ -24956,10 +27364,20 @@
       <c r="AF243" t="n" s="8">
         <v>2610.0</v>
       </c>
+      <c r="AG243" t="n" s="8">
+        <v>2685.0</v>
+      </c>
+      <c r="AH243" t="n" s="8">
+        <v>2780.0</v>
+      </c>
+      <c r="AI243" t="n" s="8">
+        <v>2900.0</v>
+      </c>
+      <c r="AJ243"/>
     </row>
     <row r="244">
       <c r="A244" t="s" s="7">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B244" t="n" s="8">
         <v>3243.0</v>
@@ -25054,10 +27472,20 @@
       <c r="AF244" t="n" s="8">
         <v>3023.0</v>
       </c>
+      <c r="AG244" t="n" s="8">
+        <v>2951.0</v>
+      </c>
+      <c r="AH244" t="n" s="8">
+        <v>3021.0</v>
+      </c>
+      <c r="AI244" t="n" s="8">
+        <v>3135.0</v>
+      </c>
+      <c r="AJ244"/>
     </row>
     <row r="245">
       <c r="A245" t="s" s="7">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B245" t="n" s="10">
         <v>8.5</v>
@@ -25152,10 +27580,20 @@
       <c r="AF245" t="n" s="10">
         <v>11.9</v>
       </c>
+      <c r="AG245" t="n" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="AH245" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI245" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ245"/>
     </row>
     <row r="246">
       <c r="A246" t="s" s="7">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B246" t="n" s="8">
         <v>6213.0</v>
@@ -25250,10 +27688,20 @@
       <c r="AF246" t="n" s="8">
         <v>9245.0</v>
       </c>
+      <c r="AG246" t="n" s="8">
+        <v>5415.0</v>
+      </c>
+      <c r="AH246" t="n" s="8">
+        <v>3825.0</v>
+      </c>
+      <c r="AI246" t="n" s="8">
+        <v>3531.0</v>
+      </c>
+      <c r="AJ246"/>
     </row>
     <row r="247">
       <c r="A247" t="s" s="7">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B247" t="n" s="8">
         <v>67226.0</v>
@@ -25348,10 +27796,20 @@
       <c r="AF247" t="n" s="8">
         <v>68576.0</v>
       </c>
+      <c r="AG247" t="n" s="8">
+        <v>69999.0</v>
+      </c>
+      <c r="AH247" t="n" s="8">
+        <v>73242.0</v>
+      </c>
+      <c r="AI247" t="n" s="8">
+        <v>75829.0</v>
+      </c>
+      <c r="AJ247"/>
     </row>
     <row r="248">
       <c r="A248" t="s" s="7">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B248" t="n" s="8">
         <v>73439.0</v>
@@ -25446,10 +27904,20 @@
       <c r="AF248" t="n" s="8">
         <v>77821.0</v>
       </c>
+      <c r="AG248" t="n" s="8">
+        <v>75414.0</v>
+      </c>
+      <c r="AH248" t="n" s="8">
+        <v>77067.0</v>
+      </c>
+      <c r="AI248" t="n" s="8">
+        <v>79360.0</v>
+      </c>
+      <c r="AJ248"/>
     </row>
     <row r="249">
       <c r="A249" t="s" s="7">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B249" t="n" s="10">
         <v>9.7</v>
@@ -25544,10 +28012,20 @@
       <c r="AF249" t="n" s="10">
         <v>9.0</v>
       </c>
+      <c r="AG249" t="n" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="AH249" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI249" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ249"/>
     </row>
     <row r="250">
       <c r="A250" t="s" s="7">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B250" t="n" s="8">
         <v>1669.0</v>
@@ -25642,10 +28120,20 @@
       <c r="AF250" t="n" s="8">
         <v>2104.0</v>
       </c>
+      <c r="AG250" t="n" s="8">
+        <v>1258.0</v>
+      </c>
+      <c r="AH250" t="n" s="8">
+        <v>1076.0</v>
+      </c>
+      <c r="AI250" t="n" s="8">
+        <v>1026.0</v>
+      </c>
+      <c r="AJ250"/>
     </row>
     <row r="251">
       <c r="A251" t="s" s="7">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B251" t="n" s="8">
         <v>15617.0</v>
@@ -25740,10 +28228,20 @@
       <c r="AF251" t="n" s="8">
         <v>21288.0</v>
       </c>
+      <c r="AG251" t="n" s="8">
+        <v>21583.0</v>
+      </c>
+      <c r="AH251" t="n" s="8">
+        <v>22201.0</v>
+      </c>
+      <c r="AI251" t="n" s="8">
+        <v>22854.0</v>
+      </c>
+      <c r="AJ251"/>
     </row>
     <row r="252">
       <c r="A252" t="s" s="7">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B252" t="n" s="8">
         <v>17286.0</v>
@@ -25838,10 +28336,20 @@
       <c r="AF252" t="n" s="8">
         <v>23392.0</v>
       </c>
+      <c r="AG252" t="n" s="8">
+        <v>22841.0</v>
+      </c>
+      <c r="AH252" t="n" s="8">
+        <v>23277.0</v>
+      </c>
+      <c r="AI252" t="n" s="8">
+        <v>23880.0</v>
+      </c>
+      <c r="AJ252"/>
     </row>
     <row r="253">
       <c r="A253" t="s" s="7">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B253" t="n" s="10">
         <v>6.0</v>
@@ -25936,10 +28444,20 @@
       <c r="AF253" t="n" s="10">
         <v>9.1</v>
       </c>
+      <c r="AG253" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AH253" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AI253" t="n" s="10">
+        <v>2.9</v>
+      </c>
+      <c r="AJ253"/>
     </row>
     <row r="254">
       <c r="A254" t="s" s="7">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B254" t="n" s="8">
         <v>36118.0</v>
@@ -26034,10 +28552,20 @@
       <c r="AF254" t="n" s="8">
         <v>59707.0</v>
       </c>
+      <c r="AG254" t="n" s="8">
+        <v>30397.0</v>
+      </c>
+      <c r="AH254" t="n" s="8">
+        <v>20104.0</v>
+      </c>
+      <c r="AI254" t="n" s="8">
+        <v>20056.0</v>
+      </c>
+      <c r="AJ254"/>
     </row>
     <row r="255">
       <c r="A255" t="s" s="7">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B255" t="n" s="8">
         <v>567898.0</v>
@@ -26132,10 +28660,20 @@
       <c r="AF255" t="n" s="8">
         <v>594036.0</v>
       </c>
+      <c r="AG255" t="n" s="8">
+        <v>629655.0</v>
+      </c>
+      <c r="AH255" t="n" s="8">
+        <v>648819.0</v>
+      </c>
+      <c r="AI255" t="n" s="8">
+        <v>667877.0</v>
+      </c>
+      <c r="AJ255"/>
     </row>
     <row r="256">
       <c r="A256" t="s" s="7">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B256" t="n" s="8">
         <v>604016.0</v>
@@ -26230,10 +28768,20 @@
       <c r="AF256" t="n" s="8">
         <v>653743.0</v>
       </c>
+      <c r="AG256" t="n" s="8">
+        <v>660052.0</v>
+      </c>
+      <c r="AH256" t="n" s="8">
+        <v>668923.0</v>
+      </c>
+      <c r="AI256" t="n" s="8">
+        <v>687933.0</v>
+      </c>
+      <c r="AJ256"/>
     </row>
     <row r="257">
       <c r="A257" t="s" s="7">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B257" t="n" s="10">
         <v>11.0</v>
@@ -26328,10 +28876,20 @@
       <c r="AF257" t="n" s="10">
         <v>10.8</v>
       </c>
+      <c r="AG257" t="n" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="AH257" t="n" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="AI257" t="n" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="AJ257"/>
     </row>
     <row r="258">
       <c r="A258" t="s" s="7">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B258" t="n" s="8">
         <v>1238.0</v>
@@ -26426,10 +28984,20 @@
       <c r="AF258" t="n" s="8">
         <v>1302.0</v>
       </c>
+      <c r="AG258" t="n" s="8">
+        <v>833.0</v>
+      </c>
+      <c r="AH258" t="n" s="8">
+        <v>733.0</v>
+      </c>
+      <c r="AI258" t="n" s="8">
+        <v>679.0</v>
+      </c>
+      <c r="AJ258"/>
     </row>
     <row r="259">
       <c r="A259" t="s" s="7">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B259" t="n" s="8">
         <v>10059.0</v>
@@ -26524,10 +29092,20 @@
       <c r="AF259" t="n" s="8">
         <v>10753.0</v>
       </c>
+      <c r="AG259" t="n" s="8">
+        <v>10741.0</v>
+      </c>
+      <c r="AH259" t="n" s="8">
+        <v>10717.0</v>
+      </c>
+      <c r="AI259" t="n" s="8">
+        <v>11171.0</v>
+      </c>
+      <c r="AJ259"/>
     </row>
     <row r="260">
       <c r="A260" t="s" s="7">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B260" t="n" s="8">
         <v>11297.0</v>
@@ -26622,10 +29200,20 @@
       <c r="AF260" t="n" s="8">
         <v>12055.0</v>
       </c>
+      <c r="AG260" t="n" s="8">
+        <v>11574.0</v>
+      </c>
+      <c r="AH260" t="n" s="8">
+        <v>11450.0</v>
+      </c>
+      <c r="AI260" t="n" s="8">
+        <v>11850.0</v>
+      </c>
+      <c r="AJ260"/>
     </row>
     <row r="261">
       <c r="A261" t="s" s="7">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B261" t="n" s="10">
         <v>9.9</v>
@@ -26720,10 +29308,20 @@
       <c r="AF261" t="n" s="10">
         <v>11.3</v>
       </c>
+      <c r="AG261" t="n" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="AH261" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AI261" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AJ261"/>
     </row>
     <row r="262">
       <c r="A262" t="s" s="7">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B262" t="n" s="8">
         <v>712.0</v>
@@ -26818,10 +29416,20 @@
       <c r="AF262" t="n" s="8">
         <v>916.0</v>
       </c>
+      <c r="AG262" t="n" s="8">
+        <v>601.0</v>
+      </c>
+      <c r="AH262" t="n" s="8">
+        <v>564.0</v>
+      </c>
+      <c r="AI262" t="n" s="8">
+        <v>559.0</v>
+      </c>
+      <c r="AJ262"/>
     </row>
     <row r="263">
       <c r="A263" t="s" s="7">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B263" t="n" s="8">
         <v>6505.0</v>
@@ -26916,10 +29524,20 @@
       <c r="AF263" t="n" s="8">
         <v>7168.0</v>
       </c>
+      <c r="AG263" t="n" s="8">
+        <v>7340.0</v>
+      </c>
+      <c r="AH263" t="n" s="8">
+        <v>7697.0</v>
+      </c>
+      <c r="AI263" t="n" s="8">
+        <v>7882.0</v>
+      </c>
+      <c r="AJ263"/>
     </row>
     <row r="264">
       <c r="A264" t="s" s="7">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B264" t="n" s="8">
         <v>7217.0</v>
@@ -27014,10 +29632,20 @@
       <c r="AF264" t="n" s="8">
         <v>8084.0</v>
       </c>
+      <c r="AG264" t="n" s="8">
+        <v>7941.0</v>
+      </c>
+      <c r="AH264" t="n" s="8">
+        <v>8261.0</v>
+      </c>
+      <c r="AI264" t="n" s="8">
+        <v>8441.0</v>
+      </c>
+      <c r="AJ264"/>
     </row>
     <row r="265">
       <c r="A265" t="s" s="7">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B265" t="n" s="10">
         <v>5.5</v>
@@ -27112,10 +29740,20 @@
       <c r="AF265" t="n" s="10">
         <v>10.8</v>
       </c>
+      <c r="AG265" t="n" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="AH265" t="n" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="AI265" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="AJ265"/>
     </row>
     <row r="266">
       <c r="A266" t="s" s="7">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B266" t="n" s="8">
         <v>214.0</v>
@@ -27210,10 +29848,20 @@
       <c r="AF266" t="n" s="8">
         <v>221.0</v>
       </c>
+      <c r="AG266" t="n" s="8">
+        <v>150.0</v>
+      </c>
+      <c r="AH266" t="n" s="8">
+        <v>147.0</v>
+      </c>
+      <c r="AI266" t="n" s="8">
+        <v>146.0</v>
+      </c>
+      <c r="AJ266"/>
     </row>
     <row r="267">
       <c r="A267" t="s" s="7">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B267" t="n" s="8">
         <v>3665.0</v>
@@ -27308,10 +29956,20 @@
       <c r="AF267" t="n" s="8">
         <v>1832.0</v>
       </c>
+      <c r="AG267" t="n" s="8">
+        <v>1858.0</v>
+      </c>
+      <c r="AH267" t="n" s="8">
+        <v>1881.0</v>
+      </c>
+      <c r="AI267" t="n" s="8">
+        <v>1941.0</v>
+      </c>
+      <c r="AJ267"/>
     </row>
     <row r="268">
       <c r="A268" t="s" s="7">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B268" t="n" s="8">
         <v>3879.0</v>
@@ -27406,10 +30064,20 @@
       <c r="AF268" t="n" s="8">
         <v>2053.0</v>
       </c>
+      <c r="AG268" t="n" s="8">
+        <v>2008.0</v>
+      </c>
+      <c r="AH268" t="n" s="8">
+        <v>2028.0</v>
+      </c>
+      <c r="AI268" t="n" s="8">
+        <v>2087.0</v>
+      </c>
+      <c r="AJ268"/>
     </row>
     <row r="269">
       <c r="A269" t="s" s="7">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B269" t="n" s="10">
         <v>11.3</v>
@@ -27504,10 +30172,20 @@
       <c r="AF269" t="n" s="10">
         <v>8.6</v>
       </c>
+      <c r="AG269" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AH269" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI269" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ269"/>
     </row>
     <row r="270">
       <c r="A270" t="s" s="7">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B270" t="n" s="8">
         <v>998.0</v>
@@ -27602,10 +30280,20 @@
       <c r="AF270" t="n" s="8">
         <v>996.0</v>
       </c>
+      <c r="AG270" t="n" s="8">
+        <v>612.0</v>
+      </c>
+      <c r="AH270" t="n" s="8">
+        <v>522.0</v>
+      </c>
+      <c r="AI270" t="n" s="8">
+        <v>585.0</v>
+      </c>
+      <c r="AJ270"/>
     </row>
     <row r="271">
       <c r="A271" t="s" s="7">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B271" t="n" s="8">
         <v>7800.0</v>
@@ -27700,10 +30388,20 @@
       <c r="AF271" t="n" s="8">
         <v>10571.0</v>
       </c>
+      <c r="AG271" t="n" s="8">
+        <v>10632.0</v>
+      </c>
+      <c r="AH271" t="n" s="8">
+        <v>10786.0</v>
+      </c>
+      <c r="AI271" t="n" s="8">
+        <v>11724.0</v>
+      </c>
+      <c r="AJ271"/>
     </row>
     <row r="272">
       <c r="A272" t="s" s="7">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B272" t="n" s="8">
         <v>8798.0</v>
@@ -27798,10 +30496,20 @@
       <c r="AF272" t="n" s="8">
         <v>11567.0</v>
       </c>
+      <c r="AG272" t="n" s="8">
+        <v>11244.0</v>
+      </c>
+      <c r="AH272" t="n" s="8">
+        <v>11308.0</v>
+      </c>
+      <c r="AI272" t="n" s="8">
+        <v>12309.0</v>
+      </c>
+      <c r="AJ272"/>
     </row>
     <row r="273">
       <c r="A273" t="s" s="7">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B273" t="n" s="10">
         <v>8.2</v>
@@ -27896,10 +30604,20 @@
       <c r="AF273" t="n" s="10">
         <v>12.9</v>
       </c>
+      <c r="AG273" t="n" s="10">
+        <v>8.7</v>
+      </c>
+      <c r="AH273" t="n" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="AI273" t="n" s="10">
+        <v>7.6</v>
+      </c>
+      <c r="AJ273"/>
     </row>
     <row r="274">
       <c r="A274" t="s" s="7">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B274" t="n" s="8">
         <v>239.0</v>
@@ -27994,10 +30712,20 @@
       <c r="AF274" t="n" s="8">
         <v>362.0</v>
       </c>
+      <c r="AG274" t="n" s="8">
+        <v>232.0</v>
+      </c>
+      <c r="AH274" t="n" s="8">
+        <v>216.0</v>
+      </c>
+      <c r="AI274" t="n" s="8">
+        <v>217.0</v>
+      </c>
+      <c r="AJ274"/>
     </row>
     <row r="275">
       <c r="A275" t="s" s="7">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B275" t="n" s="8">
         <v>2686.0</v>
@@ -28092,10 +30820,20 @@
       <c r="AF275" t="n" s="8">
         <v>2447.0</v>
       </c>
+      <c r="AG275" t="n" s="8">
+        <v>2432.0</v>
+      </c>
+      <c r="AH275" t="n" s="8">
+        <v>2556.0</v>
+      </c>
+      <c r="AI275" t="n" s="8">
+        <v>2626.0</v>
+      </c>
+      <c r="AJ275"/>
     </row>
     <row r="276">
       <c r="A276" t="s" s="7">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B276" t="n" s="8">
         <v>2925.0</v>
@@ -28190,10 +30928,20 @@
       <c r="AF276" t="n" s="8">
         <v>2809.0</v>
       </c>
+      <c r="AG276" t="n" s="8">
+        <v>2664.0</v>
+      </c>
+      <c r="AH276" t="n" s="8">
+        <v>2772.0</v>
+      </c>
+      <c r="AI276" t="n" s="8">
+        <v>2843.0</v>
+      </c>
+      <c r="AJ276"/>
     </row>
     <row r="277">
       <c r="A277" t="s" s="7">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B277" t="n" s="10">
         <v>6.2</v>
@@ -28288,10 +31036,20 @@
       <c r="AF277" t="n" s="10">
         <v>10.6</v>
       </c>
+      <c r="AG277" t="n" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="AH277" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AI277" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ277"/>
     </row>
     <row r="278">
       <c r="A278" t="s" s="7">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B278" t="n" s="8">
         <v>581.0</v>
@@ -28386,10 +31144,20 @@
       <c r="AF278" t="n" s="8">
         <v>1238.0</v>
       </c>
+      <c r="AG278" t="n" s="8">
+        <v>749.0</v>
+      </c>
+      <c r="AH278" t="n" s="8">
+        <v>609.0</v>
+      </c>
+      <c r="AI278" t="n" s="8">
+        <v>567.0</v>
+      </c>
+      <c r="AJ278"/>
     </row>
     <row r="279">
       <c r="A279" t="s" s="7">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B279" t="n" s="8">
         <v>8782.0</v>
@@ -28484,10 +31252,20 @@
       <c r="AF279" t="n" s="8">
         <v>10420.0</v>
       </c>
+      <c r="AG279" t="n" s="8">
+        <v>10648.0</v>
+      </c>
+      <c r="AH279" t="n" s="8">
+        <v>10935.0</v>
+      </c>
+      <c r="AI279" t="n" s="8">
+        <v>11284.0</v>
+      </c>
+      <c r="AJ279"/>
     </row>
     <row r="280">
       <c r="A280" t="s" s="7">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B280" t="n" s="8">
         <v>9363.0</v>
@@ -28582,10 +31360,20 @@
       <c r="AF280" t="n" s="8">
         <v>11658.0</v>
       </c>
+      <c r="AG280" t="n" s="8">
+        <v>11397.0</v>
+      </c>
+      <c r="AH280" t="n" s="8">
+        <v>11544.0</v>
+      </c>
+      <c r="AI280" t="n" s="8">
+        <v>11851.0</v>
+      </c>
+      <c r="AJ280"/>
     </row>
     <row r="281">
       <c r="A281" t="s" s="7">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B281" t="n" s="10">
         <v>5.3</v>
@@ -28680,10 +31468,20 @@
       <c r="AF281" t="n" s="10">
         <v>7.1</v>
       </c>
+      <c r="AG281" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="AH281" t="n" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AI281" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="AJ281"/>
     </row>
     <row r="282">
       <c r="A282" t="s" s="7">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B282" t="n" s="8">
         <v>5544.0</v>
@@ -28778,10 +31576,20 @@
       <c r="AF282" t="n" s="8">
         <v>11331.0</v>
       </c>
+      <c r="AG282" t="n" s="8">
+        <v>6292.0</v>
+      </c>
+      <c r="AH282" t="n" s="8">
+        <v>5233.0</v>
+      </c>
+      <c r="AI282" t="n" s="8">
+        <v>5138.0</v>
+      </c>
+      <c r="AJ282"/>
     </row>
     <row r="283">
       <c r="A283" t="s" s="7">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B283" t="n" s="8">
         <v>99295.0</v>
@@ -28876,10 +31684,20 @@
       <c r="AF283" t="n" s="8">
         <v>148785.0</v>
       </c>
+      <c r="AG283" t="n" s="8">
+        <v>150626.0</v>
+      </c>
+      <c r="AH283" t="n" s="8">
+        <v>157634.0</v>
+      </c>
+      <c r="AI283" t="n" s="8">
+        <v>163800.0</v>
+      </c>
+      <c r="AJ283"/>
     </row>
     <row r="284">
       <c r="A284" t="s" s="7">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B284" t="n" s="8">
         <v>104839.0</v>
@@ -28974,10 +31792,20 @@
       <c r="AF284" t="n" s="8">
         <v>160116.0</v>
       </c>
+      <c r="AG284" t="n" s="8">
+        <v>156918.0</v>
+      </c>
+      <c r="AH284" t="n" s="8">
+        <v>162867.0</v>
+      </c>
+      <c r="AI284" t="n" s="8">
+        <v>168938.0</v>
+      </c>
+      <c r="AJ284"/>
     </row>
     <row r="285">
       <c r="A285" t="s" s="7">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B285" t="n" s="10">
         <v>11.7</v>
@@ -29072,10 +31900,20 @@
       <c r="AF285" t="n" s="10">
         <v>11.5</v>
       </c>
+      <c r="AG285" t="n" s="10">
+        <v>7.7</v>
+      </c>
+      <c r="AH285" t="n" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="AI285" t="n" s="10">
+        <v>7.7</v>
+      </c>
+      <c r="AJ285"/>
     </row>
     <row r="286">
       <c r="A286" t="s" s="7">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B286" t="n" s="8">
         <v>708.0</v>
@@ -29170,10 +32008,20 @@
       <c r="AF286" t="n" s="8">
         <v>572.0</v>
       </c>
+      <c r="AG286" t="n" s="8">
+        <v>369.0</v>
+      </c>
+      <c r="AH286" t="n" s="8">
+        <v>370.0</v>
+      </c>
+      <c r="AI286" t="n" s="8">
+        <v>386.0</v>
+      </c>
+      <c r="AJ286"/>
     </row>
     <row r="287">
       <c r="A287" t="s" s="7">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B287" t="n" s="8">
         <v>5349.0</v>
@@ -29268,10 +32116,20 @@
       <c r="AF287" t="n" s="8">
         <v>4388.0</v>
       </c>
+      <c r="AG287" t="n" s="8">
+        <v>4419.0</v>
+      </c>
+      <c r="AH287" t="n" s="8">
+        <v>4534.0</v>
+      </c>
+      <c r="AI287" t="n" s="8">
+        <v>4659.0</v>
+      </c>
+      <c r="AJ287"/>
     </row>
     <row r="288">
       <c r="A288" t="s" s="7">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B288" t="n" s="8">
         <v>6057.0</v>
@@ -29366,10 +32224,20 @@
       <c r="AF288" t="n" s="8">
         <v>4960.0</v>
       </c>
+      <c r="AG288" t="n" s="8">
+        <v>4788.0</v>
+      </c>
+      <c r="AH288" t="n" s="8">
+        <v>4904.0</v>
+      </c>
+      <c r="AI288" t="n" s="8">
+        <v>5045.0</v>
+      </c>
+      <c r="AJ288"/>
     </row>
     <row r="289">
       <c r="A289" t="s" s="7">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B289" t="n" s="10">
         <v>9.1</v>
@@ -29464,10 +32332,20 @@
       <c r="AF289" t="n" s="10">
         <v>12.7</v>
       </c>
+      <c r="AG289" t="n" s="10">
+        <v>9.2</v>
+      </c>
+      <c r="AH289" t="n" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="AI289" t="n" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="AJ289"/>
     </row>
     <row r="290">
       <c r="A290" t="s" s="7">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B290" t="n" s="8">
         <v>650.0</v>
@@ -29562,10 +32440,20 @@
       <c r="AF290" t="n" s="8">
         <v>986.0</v>
       </c>
+      <c r="AG290" t="n" s="8">
+        <v>687.0</v>
+      </c>
+      <c r="AH290" t="n" s="8">
+        <v>662.0</v>
+      </c>
+      <c r="AI290" t="n" s="8">
+        <v>637.0</v>
+      </c>
+      <c r="AJ290"/>
     </row>
     <row r="291">
       <c r="A291" t="s" s="7">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B291" t="n" s="8">
         <v>6501.0</v>
@@ -29660,10 +32548,20 @@
       <c r="AF291" t="n" s="8">
         <v>6789.0</v>
       </c>
+      <c r="AG291" t="n" s="8">
+        <v>6777.0</v>
+      </c>
+      <c r="AH291" t="n" s="8">
+        <v>7146.0</v>
+      </c>
+      <c r="AI291" t="n" s="8">
+        <v>8175.0</v>
+      </c>
+      <c r="AJ291"/>
     </row>
     <row r="292">
       <c r="A292" t="s" s="7">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B292" t="n" s="8">
         <v>7151.0</v>
@@ -29758,10 +32656,20 @@
       <c r="AF292" t="n" s="8">
         <v>7775.0</v>
       </c>
+      <c r="AG292" t="n" s="8">
+        <v>7464.0</v>
+      </c>
+      <c r="AH292" t="n" s="8">
+        <v>7808.0</v>
+      </c>
+      <c r="AI292" t="n" s="8">
+        <v>8812.0</v>
+      </c>
+      <c r="AJ292"/>
     </row>
     <row r="293">
       <c r="A293" t="s" s="7">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B293" t="n" s="10">
         <v>7.7</v>
@@ -29856,10 +32764,20 @@
       <c r="AF293" t="n" s="10">
         <v>10.3</v>
       </c>
+      <c r="AG293" t="n" s="10">
+        <v>6.8</v>
+      </c>
+      <c r="AH293" t="n" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="AI293" t="n" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="AJ293"/>
     </row>
     <row r="294">
       <c r="A294" t="s" s="7">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B294" t="n" s="8">
         <v>7500.0</v>
@@ -29954,10 +32872,20 @@
       <c r="AF294" t="n" s="8">
         <v>8768.0</v>
       </c>
+      <c r="AG294" t="n" s="8">
+        <v>5577.0</v>
+      </c>
+      <c r="AH294" t="n" s="8">
+        <v>4501.0</v>
+      </c>
+      <c r="AI294" t="n" s="8">
+        <v>4373.0</v>
+      </c>
+      <c r="AJ294"/>
     </row>
     <row r="295">
       <c r="A295" t="s" s="7">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B295" t="n" s="8">
         <v>89952.0</v>
@@ -30052,10 +32980,20 @@
       <c r="AF295" t="n" s="8">
         <v>76084.0</v>
       </c>
+      <c r="AG295" t="n" s="8">
+        <v>75989.0</v>
+      </c>
+      <c r="AH295" t="n" s="8">
+        <v>78542.0</v>
+      </c>
+      <c r="AI295" t="n" s="8">
+        <v>79942.0</v>
+      </c>
+      <c r="AJ295"/>
     </row>
     <row r="296">
       <c r="A296" t="s" s="7">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B296" t="n" s="8">
         <v>97452.0</v>
@@ -30150,10 +33088,20 @@
       <c r="AF296" t="n" s="8">
         <v>84852.0</v>
       </c>
+      <c r="AG296" t="n" s="8">
+        <v>81566.0</v>
+      </c>
+      <c r="AH296" t="n" s="8">
+        <v>83043.0</v>
+      </c>
+      <c r="AI296" t="n" s="8">
+        <v>84315.0</v>
+      </c>
+      <c r="AJ296"/>
     </row>
     <row r="297">
       <c r="A297" t="s" s="7">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B297" t="n" s="10">
         <v>9.4</v>
@@ -30248,10 +33196,20 @@
       <c r="AF297" t="n" s="10">
         <v>11.7</v>
       </c>
+      <c r="AG297" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH297" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AI297" t="n" s="10">
+        <v>3.8</v>
+      </c>
+      <c r="AJ297"/>
     </row>
     <row r="298">
       <c r="A298" t="s" s="7">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B298" t="n" s="8">
         <v>6818.0</v>
@@ -30346,10 +33304,20 @@
       <c r="AF298" t="n" s="8">
         <v>8731.0</v>
       </c>
+      <c r="AG298" t="n" s="8">
+        <v>4325.0</v>
+      </c>
+      <c r="AH298" t="n" s="8">
+        <v>2933.0</v>
+      </c>
+      <c r="AI298" t="n" s="8">
+        <v>2924.0</v>
+      </c>
+      <c r="AJ298"/>
     </row>
     <row r="299">
       <c r="A299" t="s" s="7">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B299" t="n" s="8">
         <v>65553.0</v>
@@ -30444,10 +33412,20 @@
       <c r="AF299" t="n" s="8">
         <v>65931.0</v>
       </c>
+      <c r="AG299" t="n" s="8">
+        <v>69883.0</v>
+      </c>
+      <c r="AH299" t="n" s="8">
+        <v>71872.0</v>
+      </c>
+      <c r="AI299" t="n" s="8">
+        <v>74088.0</v>
+      </c>
+      <c r="AJ299"/>
     </row>
     <row r="300">
       <c r="A300" t="s" s="7">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B300" t="n" s="8">
         <v>72371.0</v>
@@ -30542,10 +33520,20 @@
       <c r="AF300" t="n" s="8">
         <v>74662.0</v>
       </c>
+      <c r="AG300" t="n" s="8">
+        <v>74208.0</v>
+      </c>
+      <c r="AH300" t="n" s="8">
+        <v>74805.0</v>
+      </c>
+      <c r="AI300" t="n" s="8">
+        <v>77012.0</v>
+      </c>
+      <c r="AJ300"/>
     </row>
     <row r="301">
       <c r="A301" t="s" s="7">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B301" t="n" s="10">
         <v>8.7</v>
@@ -30640,10 +33628,20 @@
       <c r="AF301" t="n" s="10">
         <v>9.4</v>
       </c>
+      <c r="AG301" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AH301" t="n" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="AI301" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ301"/>
     </row>
     <row r="302">
       <c r="A302" t="s" s="7">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B302" t="n" s="8">
         <v>2577.0</v>
@@ -30738,10 +33736,20 @@
       <c r="AF302" t="n" s="8">
         <v>2732.0</v>
       </c>
+      <c r="AG302" t="n" s="8">
+        <v>1399.0</v>
+      </c>
+      <c r="AH302" t="n" s="8">
+        <v>1178.0</v>
+      </c>
+      <c r="AI302" t="n" s="8">
+        <v>1261.0</v>
+      </c>
+      <c r="AJ302"/>
     </row>
     <row r="303">
       <c r="A303" t="s" s="7">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B303" t="n" s="8">
         <v>27145.0</v>
@@ -30836,10 +33844,20 @@
       <c r="AF303" t="n" s="8">
         <v>26404.0</v>
       </c>
+      <c r="AG303" t="n" s="8">
+        <v>26395.0</v>
+      </c>
+      <c r="AH303" t="n" s="8">
+        <v>27325.0</v>
+      </c>
+      <c r="AI303" t="n" s="8">
+        <v>27631.0</v>
+      </c>
+      <c r="AJ303"/>
     </row>
     <row r="304">
       <c r="A304" t="s" s="7">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B304" t="n" s="8">
         <v>29722.0</v>
@@ -30934,10 +33952,20 @@
       <c r="AF304" t="n" s="8">
         <v>29136.0</v>
       </c>
+      <c r="AG304" t="n" s="8">
+        <v>27794.0</v>
+      </c>
+      <c r="AH304" t="n" s="8">
+        <v>28503.0</v>
+      </c>
+      <c r="AI304" t="n" s="8">
+        <v>28892.0</v>
+      </c>
+      <c r="AJ304"/>
     </row>
     <row r="305">
       <c r="A305" t="s" s="7">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B305" t="n" s="10">
         <v>10.8</v>
@@ -31032,10 +34060,20 @@
       <c r="AF305" t="n" s="10">
         <v>10.0</v>
       </c>
+      <c r="AG305" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="AH305" t="n" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="AI305" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ305"/>
     </row>
     <row r="306">
       <c r="A306" t="s" s="7">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B306" t="n" s="8">
         <v>2062.0</v>
@@ -31130,10 +34168,20 @@
       <c r="AF306" t="n" s="8">
         <v>1953.0</v>
       </c>
+      <c r="AG306" t="n" s="8">
+        <v>1132.0</v>
+      </c>
+      <c r="AH306" t="n" s="8">
+        <v>965.0</v>
+      </c>
+      <c r="AI306" t="n" s="8">
+        <v>960.0</v>
+      </c>
+      <c r="AJ306"/>
     </row>
     <row r="307">
       <c r="A307" t="s" s="7">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B307" t="n" s="8">
         <v>16968.0</v>
@@ -31228,10 +34276,20 @@
       <c r="AF307" t="n" s="8">
         <v>17538.0</v>
       </c>
+      <c r="AG307" t="n" s="8">
+        <v>17813.0</v>
+      </c>
+      <c r="AH307" t="n" s="8">
+        <v>17916.0</v>
+      </c>
+      <c r="AI307" t="n" s="8">
+        <v>18849.0</v>
+      </c>
+      <c r="AJ307"/>
     </row>
     <row r="308">
       <c r="A308" t="s" s="7">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B308" t="n" s="8">
         <v>19030.0</v>
@@ -31326,10 +34384,20 @@
       <c r="AF308" t="n" s="8">
         <v>19491.0</v>
       </c>
+      <c r="AG308" t="n" s="8">
+        <v>18945.0</v>
+      </c>
+      <c r="AH308" t="n" s="8">
+        <v>18881.0</v>
+      </c>
+      <c r="AI308" t="n" s="8">
+        <v>19809.0</v>
+      </c>
+      <c r="AJ308"/>
     </row>
     <row r="309">
       <c r="A309" t="s" s="7">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B309" t="n" s="10">
         <v>16.2</v>
@@ -31424,10 +34492,20 @@
       <c r="AF309" t="n" s="10">
         <v>10.1</v>
       </c>
+      <c r="AG309" t="n" s="10">
+        <v>7.9</v>
+      </c>
+      <c r="AH309" t="n" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="AI309" t="n" s="10">
+        <v>7.3</v>
+      </c>
+      <c r="AJ309"/>
     </row>
     <row r="310">
       <c r="A310" t="s" s="7">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B310" t="n" s="8">
         <v>619.0</v>
@@ -31522,10 +34600,20 @@
       <c r="AF310" t="n" s="8">
         <v>328.0</v>
       </c>
+      <c r="AG310" t="n" s="8">
+        <v>244.0</v>
+      </c>
+      <c r="AH310" t="n" s="8">
+        <v>237.0</v>
+      </c>
+      <c r="AI310" t="n" s="8">
+        <v>241.0</v>
+      </c>
+      <c r="AJ310"/>
     </row>
     <row r="311">
       <c r="A311" t="s" s="7">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B311" t="n" s="8">
         <v>3197.0</v>
@@ -31620,10 +34708,20 @@
       <c r="AF311" t="n" s="8">
         <v>2925.0</v>
       </c>
+      <c r="AG311" t="n" s="8">
+        <v>2860.0</v>
+      </c>
+      <c r="AH311" t="n" s="8">
+        <v>2920.0</v>
+      </c>
+      <c r="AI311" t="n" s="8">
+        <v>3075.0</v>
+      </c>
+      <c r="AJ311"/>
     </row>
     <row r="312">
       <c r="A312" t="s" s="7">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B312" t="n" s="8">
         <v>3816.0</v>
@@ -31718,10 +34816,20 @@
       <c r="AF312" t="n" s="8">
         <v>3253.0</v>
       </c>
+      <c r="AG312" t="n" s="8">
+        <v>3104.0</v>
+      </c>
+      <c r="AH312" t="n" s="8">
+        <v>3157.0</v>
+      </c>
+      <c r="AI312" t="n" s="8">
+        <v>3316.0</v>
+      </c>
+      <c r="AJ312"/>
     </row>
     <row r="313">
       <c r="A313" t="s" s="7">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B313" t="n" s="10">
         <v>9.7</v>
@@ -31816,10 +34924,20 @@
       <c r="AF313" t="n" s="10">
         <v>9.5</v>
       </c>
+      <c r="AG313" t="n" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="AH313" t="n" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="AI313" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AJ313"/>
     </row>
     <row r="314">
       <c r="A314" t="s" s="7">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B314" t="n" s="8">
         <v>3420.0</v>
@@ -31914,10 +35032,20 @@
       <c r="AF314" t="n" s="8">
         <v>3112.0</v>
       </c>
+      <c r="AG314" t="n" s="8">
+        <v>1767.0</v>
+      </c>
+      <c r="AH314" t="n" s="8">
+        <v>1505.0</v>
+      </c>
+      <c r="AI314" t="n" s="8">
+        <v>1452.0</v>
+      </c>
+      <c r="AJ314"/>
     </row>
     <row r="315">
       <c r="A315" t="s" s="7">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B315" t="n" s="8">
         <v>31743.0</v>
@@ -32012,10 +35140,20 @@
       <c r="AF315" t="n" s="8">
         <v>29750.0</v>
       </c>
+      <c r="AG315" t="n" s="8">
+        <v>29970.0</v>
+      </c>
+      <c r="AH315" t="n" s="8">
+        <v>30908.0</v>
+      </c>
+      <c r="AI315" t="n" s="8">
+        <v>32039.0</v>
+      </c>
+      <c r="AJ315"/>
     </row>
     <row r="316">
       <c r="A316" t="s" s="7">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B316" t="n" s="8">
         <v>35163.0</v>
@@ -32110,10 +35248,20 @@
       <c r="AF316" t="n" s="8">
         <v>32862.0</v>
       </c>
+      <c r="AG316" t="n" s="8">
+        <v>31737.0</v>
+      </c>
+      <c r="AH316" t="n" s="8">
+        <v>32413.0</v>
+      </c>
+      <c r="AI316" t="n" s="8">
+        <v>33491.0</v>
+      </c>
+      <c r="AJ316"/>
     </row>
     <row r="317">
       <c r="A317" t="s" s="7">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B317" t="n" s="10">
         <v>9.7</v>
@@ -32208,10 +35356,20 @@
       <c r="AF317" t="n" s="10">
         <v>10.4</v>
       </c>
+      <c r="AG317" t="n" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AH317" t="n" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="AI317" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AJ317"/>
     </row>
     <row r="318">
       <c r="A318" t="s" s="7">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B318" t="n" s="8">
         <v>2525.0</v>
@@ -32306,10 +35464,20 @@
       <c r="AF318" t="n" s="8">
         <v>2475.0</v>
       </c>
+      <c r="AG318" t="n" s="8">
+        <v>1395.0</v>
+      </c>
+      <c r="AH318" t="n" s="8">
+        <v>1216.0</v>
+      </c>
+      <c r="AI318" t="n" s="8">
+        <v>1204.0</v>
+      </c>
+      <c r="AJ318"/>
     </row>
     <row r="319">
       <c r="A319" t="s" s="7">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B319" t="n" s="8">
         <v>23578.0</v>
@@ -32404,10 +35572,20 @@
       <c r="AF319" t="n" s="8">
         <v>21236.0</v>
       </c>
+      <c r="AG319" t="n" s="8">
+        <v>21273.0</v>
+      </c>
+      <c r="AH319" t="n" s="8">
+        <v>21865.0</v>
+      </c>
+      <c r="AI319" t="n" s="8">
+        <v>22875.0</v>
+      </c>
+      <c r="AJ319"/>
     </row>
     <row r="320">
       <c r="A320" t="s" s="7">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B320" t="n" s="8">
         <v>26103.0</v>
@@ -32502,10 +35680,20 @@
       <c r="AF320" t="n" s="8">
         <v>23711.0</v>
       </c>
+      <c r="AG320" t="n" s="8">
+        <v>22668.0</v>
+      </c>
+      <c r="AH320" t="n" s="8">
+        <v>23081.0</v>
+      </c>
+      <c r="AI320" t="n" s="8">
+        <v>24079.0</v>
+      </c>
+      <c r="AJ320"/>
     </row>
     <row r="321">
       <c r="A321" t="s" s="7">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B321" t="n" s="10">
         <v>8.7</v>
@@ -32600,10 +35788,20 @@
       <c r="AF321" t="n" s="10">
         <v>8.7</v>
       </c>
+      <c r="AG321" t="n" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="AH321" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="AI321" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AJ321"/>
     </row>
     <row r="322">
       <c r="A322" t="s" s="7">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B322" t="n" s="8">
         <v>2935.0</v>
@@ -32698,10 +35896,20 @@
       <c r="AF322" t="n" s="8">
         <v>3034.0</v>
       </c>
+      <c r="AG322" t="n" s="8">
+        <v>2002.0</v>
+      </c>
+      <c r="AH322" t="n" s="8">
+        <v>1702.0</v>
+      </c>
+      <c r="AI322" t="n" s="8">
+        <v>1681.0</v>
+      </c>
+      <c r="AJ322"/>
     </row>
     <row r="323">
       <c r="A323" t="s" s="7">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B323" t="n" s="8">
         <v>30847.0</v>
@@ -32796,10 +36004,20 @@
       <c r="AF323" t="n" s="8">
         <v>31815.0</v>
       </c>
+      <c r="AG323" t="n" s="8">
+        <v>31741.0</v>
+      </c>
+      <c r="AH323" t="n" s="8">
+        <v>32605.0</v>
+      </c>
+      <c r="AI323" t="n" s="8">
+        <v>33877.0</v>
+      </c>
+      <c r="AJ323"/>
     </row>
     <row r="324">
       <c r="A324" t="s" s="7">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B324" t="n" s="8">
         <v>33782.0</v>
@@ -32894,10 +36112,20 @@
       <c r="AF324" t="n" s="8">
         <v>34849.0</v>
       </c>
+      <c r="AG324" t="n" s="8">
+        <v>33743.0</v>
+      </c>
+      <c r="AH324" t="n" s="8">
+        <v>34307.0</v>
+      </c>
+      <c r="AI324" t="n" s="8">
+        <v>35558.0</v>
+      </c>
+      <c r="AJ324"/>
     </row>
     <row r="325">
       <c r="A325" t="s" s="7">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B325" t="n" s="10">
         <v>4.8</v>
@@ -32992,10 +36220,20 @@
       <c r="AF325" t="n" s="10">
         <v>6.7</v>
       </c>
+      <c r="AG325" t="n" s="10">
+        <v>4.3</v>
+      </c>
+      <c r="AH325" t="n" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="AI325" t="n" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="AJ325"/>
     </row>
     <row r="326">
       <c r="A326" t="s" s="7">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B326" t="n" s="8">
         <v>7665.0</v>
@@ -33090,10 +36328,20 @@
       <c r="AF326" t="n" s="8">
         <v>13070.0</v>
       </c>
+      <c r="AG326" t="n" s="8">
+        <v>8043.0</v>
+      </c>
+      <c r="AH326" t="n" s="8">
+        <v>6927.0</v>
+      </c>
+      <c r="AI326" t="n" s="8">
+        <v>6614.0</v>
+      </c>
+      <c r="AJ326"/>
     </row>
     <row r="327">
       <c r="A327" t="s" s="7">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B327" t="n" s="8">
         <v>151090.0</v>
@@ -33188,10 +36436,20 @@
       <c r="AF327" t="n" s="8">
         <v>181098.0</v>
       </c>
+      <c r="AG327" t="n" s="8">
+        <v>180683.0</v>
+      </c>
+      <c r="AH327" t="n" s="8">
+        <v>188405.0</v>
+      </c>
+      <c r="AI327" t="n" s="8">
+        <v>194354.0</v>
+      </c>
+      <c r="AJ327"/>
     </row>
     <row r="328">
       <c r="A328" t="s" s="7">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B328" t="n" s="8">
         <v>158755.0</v>
@@ -33286,10 +36544,20 @@
       <c r="AF328" t="n" s="8">
         <v>194168.0</v>
       </c>
+      <c r="AG328" t="n" s="8">
+        <v>188726.0</v>
+      </c>
+      <c r="AH328" t="n" s="8">
+        <v>195332.0</v>
+      </c>
+      <c r="AI328" t="n" s="8">
+        <v>200968.0</v>
+      </c>
+      <c r="AJ328"/>
     </row>
     <row r="329">
       <c r="A329" t="s" s="7">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B329" t="n" s="10">
         <v>9.2</v>
@@ -33384,10 +36652,20 @@
       <c r="AF329" t="n" s="10">
         <v>13.6</v>
       </c>
+      <c r="AG329" t="n" s="10">
+        <v>7.8</v>
+      </c>
+      <c r="AH329" t="n" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="AI329" t="n" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="AJ329"/>
     </row>
     <row r="330">
       <c r="A330" t="s" s="7">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B330" t="n" s="8">
         <v>86783.0</v>
@@ -33482,10 +36760,20 @@
       <c r="AF330" t="n" s="8">
         <v>109004.0</v>
       </c>
+      <c r="AG330" t="n" s="8">
+        <v>61797.0</v>
+      </c>
+      <c r="AH330" t="n" s="8">
+        <v>37137.0</v>
+      </c>
+      <c r="AI330" t="n" s="8">
+        <v>35420.0</v>
+      </c>
+      <c r="AJ330"/>
     </row>
     <row r="331">
       <c r="A331" t="s" s="7">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B331" t="n" s="8">
         <v>856525.0</v>
@@ -33580,10 +36868,20 @@
       <c r="AF331" t="n" s="8">
         <v>693214.0</v>
       </c>
+      <c r="AG331" t="n" s="8">
+        <v>732872.0</v>
+      </c>
+      <c r="AH331" t="n" s="8">
+        <v>757497.0</v>
+      </c>
+      <c r="AI331" t="n" s="8">
+        <v>778572.0</v>
+      </c>
+      <c r="AJ331"/>
     </row>
     <row r="332">
       <c r="A332" t="s" s="7">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B332" t="n" s="8">
         <v>943308.0</v>
@@ -33678,10 +36976,20 @@
       <c r="AF332" t="n" s="8">
         <v>802218.0</v>
       </c>
+      <c r="AG332" t="n" s="8">
+        <v>794669.0</v>
+      </c>
+      <c r="AH332" t="n" s="8">
+        <v>794634.0</v>
+      </c>
+      <c r="AI332" t="n" s="8">
+        <v>813992.0</v>
+      </c>
+      <c r="AJ332"/>
     </row>
     <row r="333">
       <c r="A333" t="s" s="7">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B333" t="n" s="10">
         <v>12.3</v>
@@ -33776,10 +37084,20 @@
       <c r="AF333" t="n" s="10">
         <v>10.5</v>
       </c>
+      <c r="AG333" t="n" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="AH333" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AI333" t="n" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="AJ333"/>
     </row>
     <row r="334">
       <c r="A334" t="s" s="7">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B334" t="n" s="8">
         <v>1535.0</v>
@@ -33874,10 +37192,20 @@
       <c r="AF334" t="n" s="8">
         <v>1573.0</v>
       </c>
+      <c r="AG334" t="n" s="8">
+        <v>846.0</v>
+      </c>
+      <c r="AH334" t="n" s="8">
+        <v>708.0</v>
+      </c>
+      <c r="AI334" t="n" s="8">
+        <v>722.0</v>
+      </c>
+      <c r="AJ334"/>
     </row>
     <row r="335">
       <c r="A335" t="s" s="7">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B335" t="n" s="8">
         <v>10895.0</v>
@@ -33972,10 +37300,20 @@
       <c r="AF335" t="n" s="8">
         <v>13365.0</v>
       </c>
+      <c r="AG335" t="n" s="8">
+        <v>13799.0</v>
+      </c>
+      <c r="AH335" t="n" s="8">
+        <v>14183.0</v>
+      </c>
+      <c r="AI335" t="n" s="8">
+        <v>14445.0</v>
+      </c>
+      <c r="AJ335"/>
     </row>
     <row r="336">
       <c r="A336" t="s" s="7">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B336" t="n" s="8">
         <v>12430.0</v>
@@ -34070,6 +37408,16 @@
       <c r="AF336" t="n" s="8">
         <v>14938.0</v>
       </c>
+      <c r="AG336" t="n" s="8">
+        <v>14645.0</v>
+      </c>
+      <c r="AH336" t="n" s="8">
+        <v>14891.0</v>
+      </c>
+      <c r="AI336" t="n" s="8">
+        <v>15167.0</v>
+      </c>
+      <c r="AJ336"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -34080,7 +37428,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 27, 2024 (01:25:10 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: January 5, 2025 (02:45:05 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
